--- a/AAII_Financials/Quarterly/CMCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMCO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>CMCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>189500</v>
+      </c>
+      <c r="E8" s="3">
         <v>199400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>207600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>212700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>216700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>217400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>217100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>225000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>214100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>208700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>212800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>203700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>183700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>152500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>151900</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>123300</v>
+      </c>
+      <c r="E9" s="3">
         <v>131500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>134100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>137100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>140700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>144000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>141200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>145300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>139500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>279700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>282700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>269200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>133400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>107700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>66200</v>
+      </c>
+      <c r="E10" s="3">
         <v>67900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>73500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>75600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>76000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>73400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>75900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>79700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>74600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-71000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-69900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-65500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>50300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>44800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,46 +907,47 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E12" s="3">
         <v>2600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3100</v>
-      </c>
-      <c r="J12" s="3">
-        <v>3700</v>
       </c>
       <c r="K12" s="3">
         <v>3700</v>
       </c>
       <c r="L12" s="3">
+        <v>3700</v>
+      </c>
+      <c r="M12" s="3">
         <v>3300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2900</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>8</v>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1000,23 +1020,23 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-1000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>15600</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>11100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
@@ -1027,16 +1047,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>2400</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1047,43 +1070,46 @@
         <v>3200</v>
       </c>
       <c r="F15" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G15" s="3">
         <v>3300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>3500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>3900</v>
       </c>
       <c r="M15" s="3">
         <v>3900</v>
       </c>
       <c r="N15" s="3">
+        <v>3900</v>
+      </c>
+      <c r="O15" s="3">
         <v>3700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2800</v>
-      </c>
-      <c r="P15" s="3">
-        <v>1800</v>
       </c>
       <c r="Q15" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>172800</v>
+      </c>
+      <c r="E17" s="3">
         <v>178500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>182400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>185700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>192300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>210800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>192300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>211500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>197800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>195000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>193600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>184100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>188200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>147200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>139300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E18" s="3">
         <v>20900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>25200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>27000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>24400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>6600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>24800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>13500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>16300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>13700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>19200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>19600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,243 +1244,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E21" s="3">
         <v>28200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>32800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>35000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>32500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>14600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>32800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>22900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>25000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>23300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>28700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>28600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>9600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E22" s="3">
         <v>3400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4900</v>
-      </c>
-      <c r="M22" s="3">
-        <v>5100</v>
       </c>
       <c r="N22" s="3">
         <v>5100</v>
       </c>
       <c r="O22" s="3">
+        <v>5100</v>
+      </c>
+      <c r="P22" s="3">
         <v>3600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E23" s="3">
         <v>17500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>21700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>23700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>20600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>20500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>9500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>11100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>9300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>14600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>14800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E24" s="3">
         <v>2200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>900</v>
-      </c>
-      <c r="H24" s="3">
-        <v>4600</v>
       </c>
       <c r="I24" s="3">
         <v>4600</v>
       </c>
       <c r="J24" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K24" s="3">
         <v>1800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>19900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-3700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E26" s="3">
         <v>15300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>16600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>18600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>19700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>15900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>7700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-10600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>12500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>11700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E27" s="3">
         <v>15300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>16600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>18600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>19700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>15900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>7700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-10600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>12500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>11700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1648,26 +1709,26 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>1500</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>1000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-18600</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E33" s="3">
         <v>15300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>16600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>18600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>19700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>15900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-29200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>12500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>11700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E35" s="3">
         <v>15300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>16600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>18600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>19700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>15900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-29200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>12500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>11700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>114500</v>
+      </c>
+      <c r="E41" s="3">
         <v>84000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>72000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>55700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>71100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>58100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>57700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>57100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>63000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>64600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>69500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>64600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>77600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>51500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>45700</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,337 +2237,361 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>123700</v>
+      </c>
+      <c r="E43" s="3">
         <v>125400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>130000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>135500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>129200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>123400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>132100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>129800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>127800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>123500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>126400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>119700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>111600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>74900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>80400</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>127400</v>
+      </c>
+      <c r="E44" s="3">
         <v>135400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>142400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>151000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>146300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>149700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>158300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>155700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>152900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>144700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>139300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>135300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>130600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>109100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>116200</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E45" s="3">
         <v>16900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>15900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>16600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>17000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>16800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>16600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>17800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>16800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>19600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>21100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>16300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>382700</v>
+      </c>
+      <c r="E46" s="3">
         <v>361700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>361100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>358100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>362600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>347800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>365100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>359400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>360300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>350500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>352000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>339300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>341000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>251800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>256500</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E47" s="3">
         <v>7400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>7900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>7600</v>
-      </c>
-      <c r="G47" s="3">
-        <v>7000</v>
       </c>
       <c r="H47" s="3">
         <v>7000</v>
       </c>
       <c r="I47" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J47" s="3">
         <v>7200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>7600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>8100</v>
-      </c>
-      <c r="N47" s="3">
-        <v>7700</v>
       </c>
       <c r="O47" s="3">
         <v>7700</v>
       </c>
       <c r="P47" s="3">
+        <v>7700</v>
+      </c>
+      <c r="Q47" s="3">
         <v>8100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>79500</v>
+      </c>
+      <c r="E48" s="3">
         <v>81100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>82700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>85100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>87300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>88700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>102300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>104500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>113100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>111800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>113100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>112700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>113000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>99200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>537600</v>
+      </c>
+      <c r="E49" s="3">
         <v>546000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>540300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>556800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>555800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>566300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>574000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>580000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>611200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>605000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>603000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>595100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>575500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>285500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>289700</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>86100</v>
+      </c>
+      <c r="E52" s="3">
         <v>83700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>79400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>82900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>48900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>52800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>55400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>56100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>50200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>56200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>69600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>71600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>76700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>81000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>81900</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1093300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1079900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1071400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1090500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1061600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1062500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1104000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1107600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1142400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1131100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1145700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1126400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1113800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>725600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>739700</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,60 +2879,64 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>57300</v>
+      </c>
+      <c r="E57" s="3">
         <v>46300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>49000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>40200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>47000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>39700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>41400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>43400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>47000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>42900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>42000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>40500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>41000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>28200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>65000</v>
+        <v>4500</v>
       </c>
       <c r="E58" s="3">
         <v>65000</v>
@@ -2814,7 +2948,7 @@
         <v>65000</v>
       </c>
       <c r="H58" s="3">
-        <v>60000</v>
+        <v>65000</v>
       </c>
       <c r="I58" s="3">
         <v>60000</v>
@@ -2823,216 +2957,231 @@
         <v>60000</v>
       </c>
       <c r="K58" s="3">
-        <v>60100</v>
+        <v>60000</v>
       </c>
       <c r="L58" s="3">
         <v>60100</v>
       </c>
       <c r="M58" s="3">
+        <v>60100</v>
+      </c>
+      <c r="N58" s="3">
         <v>49700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>49800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>52600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>13100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>93600</v>
+      </c>
+      <c r="E59" s="3">
         <v>94200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>95100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>99800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>99300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>95500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>95600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>92300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>100000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>90900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>88100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>85300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>97400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>51200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>155300</v>
+      </c>
+      <c r="E60" s="3">
         <v>205500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>209100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>205000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>211300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>195300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>197000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>195800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>207000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>193900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>179800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>175600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>191000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>92500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>123100</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>246900</v>
+      </c>
+      <c r="E61" s="3">
         <v>186900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>206400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>225800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>235300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>254800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>279300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>293800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>303300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>317800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>342500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>358200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>368800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>221100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>196800</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>227500</v>
+      </c>
+      <c r="E62" s="3">
         <v>203100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>192100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>207300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>183800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>192000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>203400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>208400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>224000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>235400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>236600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>228600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>212800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>119700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>121300</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>629700</v>
+      </c>
+      <c r="E66" s="3">
         <v>595500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>607600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>638200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>630400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>642100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>679700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>698000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>734200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>747100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>758900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>762400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>772500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>433300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>441200</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>290400</v>
+      </c>
+      <c r="E72" s="3">
         <v>284000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>270200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>255000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>236500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>219300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>221200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>206500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>197900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>191500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>203000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>191400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>179700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>186300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>186600</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>463600</v>
+      </c>
+      <c r="E76" s="3">
         <v>484400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>463800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>452300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>431200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>420400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>424300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>409600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>408200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>384000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>386800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>364000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>341400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>292300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E81" s="3">
         <v>15300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>16600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>18600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>19700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>15900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-29200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>12500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>11700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E83" s="3">
         <v>7200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7400</v>
-      </c>
-      <c r="G83" s="3">
-        <v>7900</v>
       </c>
       <c r="H83" s="3">
         <v>7900</v>
       </c>
       <c r="I83" s="3">
+        <v>7900</v>
+      </c>
+      <c r="J83" s="3">
         <v>8000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>9300</v>
-      </c>
-      <c r="L83" s="3">
-        <v>9100</v>
       </c>
       <c r="M83" s="3">
         <v>9100</v>
       </c>
       <c r="N83" s="3">
+        <v>9100</v>
+      </c>
+      <c r="O83" s="3">
         <v>8700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>5800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E89" s="3">
         <v>32400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>40000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>25700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>26200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>19500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>8100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>18400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>16500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>20300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>14400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>11900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>22900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>4300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>2600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-16600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-215900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4396,7 +4630,7 @@
         <v>-1400</v>
       </c>
       <c r="G96" s="3">
-        <v>-1200</v>
+        <v>-1400</v>
       </c>
       <c r="H96" s="3">
         <v>-1200</v>
@@ -4408,7 +4642,7 @@
         <v>-1200</v>
       </c>
       <c r="K96" s="3">
-        <v>-900</v>
+        <v>-1200</v>
       </c>
       <c r="L96" s="3">
         <v>-900</v>
@@ -4423,13 +4657,16 @@
         <v>-900</v>
       </c>
       <c r="P96" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="Q96" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-20800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-18600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-10900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-16000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-27500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-16200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-8100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-16400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-15500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-12600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-15000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>226600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-12200</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>1800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E102" s="3">
         <v>12000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>16300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-15400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>13000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-13000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>26100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>5800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>CMCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>139100</v>
+      </c>
+      <c r="E8" s="3">
         <v>189500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>199400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>207600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>212700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>216700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>217400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>217100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>225000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>214100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>208700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>212800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>203700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>183700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>152500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>151900</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>94300</v>
+      </c>
+      <c r="E9" s="3">
         <v>123300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>131500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>134100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>137100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>140700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>144000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>141200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>145300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>139500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>279700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>282700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>269200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>133400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>107700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>44800</v>
+      </c>
+      <c r="E10" s="3">
         <v>66200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>67900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>73500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>75600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>76000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>73400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>75900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>79700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>74600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-71000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-69900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-65500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>50300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>44800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,49 +921,50 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E12" s="3">
         <v>2900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3100</v>
-      </c>
-      <c r="K12" s="3">
-        <v>3700</v>
       </c>
       <c r="L12" s="3">
         <v>3700</v>
       </c>
       <c r="M12" s="3">
+        <v>3700</v>
+      </c>
+      <c r="N12" s="3">
         <v>3300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2900</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>8</v>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1023,23 +1043,23 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-1000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>15600</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>11100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -1050,21 +1070,24 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>2400</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="E15" s="3">
         <v>3200</v>
@@ -1073,43 +1096,46 @@
         <v>3200</v>
       </c>
       <c r="G15" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H15" s="3">
         <v>3300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>3900</v>
       </c>
       <c r="N15" s="3">
         <v>3900</v>
       </c>
       <c r="O15" s="3">
+        <v>3900</v>
+      </c>
+      <c r="P15" s="3">
         <v>3700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2800</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>1800</v>
       </c>
       <c r="R15" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>137300</v>
+      </c>
+      <c r="E17" s="3">
         <v>172800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>178500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>182400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>185700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>192300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>210800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>192300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>211500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>197800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>195000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>193600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>184100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>188200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>147200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>139300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E18" s="3">
         <v>16700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>20900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>25200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>27000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>24400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>24800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>13500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>16300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>13700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>19200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>19600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,108 +1278,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E21" s="3">
         <v>24500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>28200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>32800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>35000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>32500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>14600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>32800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>22900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>25000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>23300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>28700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>28600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>9600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1354,149 +1394,158 @@
         <v>3200</v>
       </c>
       <c r="E22" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F22" s="3">
         <v>3400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4900</v>
-      </c>
-      <c r="N22" s="3">
-        <v>5100</v>
       </c>
       <c r="O22" s="3">
         <v>5100</v>
       </c>
       <c r="P22" s="3">
+        <v>5100</v>
+      </c>
+      <c r="Q22" s="3">
         <v>3600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E23" s="3">
         <v>14200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>17500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>21700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>23700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>20600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>20500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>9500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>11100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>14600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>14800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>4900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>900</v>
-      </c>
-      <c r="I24" s="3">
-        <v>4600</v>
       </c>
       <c r="J24" s="3">
         <v>4600</v>
       </c>
       <c r="K24" s="3">
+        <v>4600</v>
+      </c>
+      <c r="L24" s="3">
         <v>1800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>19900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E26" s="3">
         <v>9200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>15300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>16600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>18600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>19700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>15900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-10600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>12500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>11700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E27" s="3">
         <v>9200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>15300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>16600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>18600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>19700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>15900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-10600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>12500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>11700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1712,26 +1773,26 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>1500</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>1000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-18600</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E33" s="3">
         <v>9200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>15300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>16600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>18600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>19700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>15900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>8500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-29200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>12500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>11700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E35" s="3">
         <v>9200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>15300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>16600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>18600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>19700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>15900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>8500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-29200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>12500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>11700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>152200</v>
+      </c>
+      <c r="E41" s="3">
         <v>114500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>84000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>72000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>55700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>71100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>58100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>57700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>57100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>63000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>64600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>69500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>64600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>77600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>51500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>45700</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,358 +2330,382 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>96500</v>
+      </c>
+      <c r="E43" s="3">
         <v>123700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>125400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>130000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>135500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>129200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>123400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>132100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>129800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>127800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>123500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>126400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>119700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>111600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>74900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>80400</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>124600</v>
+      </c>
+      <c r="E44" s="3">
         <v>127400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>135400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>142400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>151000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>146300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>149700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>158300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>155700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>152900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>144700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>139300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>135300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>130600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>109100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>116200</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E45" s="3">
         <v>17200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>15900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>16100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>16600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>17000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>16800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>16600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>17800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>16800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>19600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>21100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>16300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>392900</v>
+      </c>
+      <c r="E46" s="3">
         <v>382700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>361700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>361100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>358100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>362600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>347800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>365100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>359400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>360300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>350500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>352000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>339300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>341000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>251800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>256500</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E47" s="3">
         <v>7300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>7400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>7900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>7600</v>
-      </c>
-      <c r="H47" s="3">
-        <v>7000</v>
       </c>
       <c r="I47" s="3">
         <v>7000</v>
       </c>
       <c r="J47" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K47" s="3">
         <v>7200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>8100</v>
-      </c>
-      <c r="O47" s="3">
-        <v>7700</v>
       </c>
       <c r="P47" s="3">
         <v>7700</v>
       </c>
       <c r="Q47" s="3">
+        <v>7700</v>
+      </c>
+      <c r="R47" s="3">
         <v>8100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>113700</v>
+      </c>
+      <c r="E48" s="3">
         <v>79500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>81100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>82700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>85100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>87300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>88700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>102300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>104500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>113100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>111800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>113100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>112700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>113000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>99200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>540000</v>
+      </c>
+      <c r="E49" s="3">
         <v>537600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>546000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>540300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>556800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>555800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>566300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>574000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>580000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>611200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>605000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>603000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>595100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>575500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>285500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>289700</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>48400</v>
+      </c>
+      <c r="E52" s="3">
         <v>86100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>83700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>79400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>82900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>48900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>52800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>55400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>56100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>50200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>56200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>69600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>71600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>76700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>81000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>81900</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1102600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1093300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1079900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1071400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1090500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1061600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1062500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1104000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1107600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1142400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1131100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1145700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1126400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1113800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>725600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>739700</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,66 +3010,70 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E57" s="3">
         <v>57300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>46300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>49000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>40200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>47000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>39700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>41400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>43400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>47000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>42900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>42000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>40500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>41000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>28200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E58" s="3">
         <v>4500</v>
-      </c>
-      <c r="E58" s="3">
-        <v>65000</v>
       </c>
       <c r="F58" s="3">
         <v>65000</v>
@@ -2951,7 +3085,7 @@
         <v>65000</v>
       </c>
       <c r="I58" s="3">
-        <v>60000</v>
+        <v>65000</v>
       </c>
       <c r="J58" s="3">
         <v>60000</v>
@@ -2960,228 +3094,243 @@
         <v>60000</v>
       </c>
       <c r="L58" s="3">
-        <v>60100</v>
+        <v>60000</v>
       </c>
       <c r="M58" s="3">
         <v>60100</v>
       </c>
       <c r="N58" s="3">
+        <v>60100</v>
+      </c>
+      <c r="O58" s="3">
         <v>49700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>49800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>52600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>13100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>91900</v>
+      </c>
+      <c r="E59" s="3">
         <v>93600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>94200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>95100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>99800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>99300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>95500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>95600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>92300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>100000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>90900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>88100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>85300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>97400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>51200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>160300</v>
+      </c>
+      <c r="E60" s="3">
         <v>155300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>205500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>209100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>205000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>211300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>195300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>197000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>195800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>207000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>193900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>179800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>175600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>191000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>92500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>123100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>246300</v>
+      </c>
+      <c r="E61" s="3">
         <v>246900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>186900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>206400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>225800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>235300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>254800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>279300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>293800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>303300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>317800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>342500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>358200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>368800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>221100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>196800</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>229400</v>
+      </c>
+      <c r="E62" s="3">
         <v>227500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>203100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>192100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>207300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>183800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>192000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>203400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>208400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>224000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>235400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>236600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>228600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>212800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>119700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>121300</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>636000</v>
+      </c>
+      <c r="E66" s="3">
         <v>629700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>595500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>607600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>638200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>630400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>642100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>679700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>698000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>734200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>747100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>758900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>762400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>772500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>433300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>441200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>287500</v>
+      </c>
+      <c r="E72" s="3">
         <v>290400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>284000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>270200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>255000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>236500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>219300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>221200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>206500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>197900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>191500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>203000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>191400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>179700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>186300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>186600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>466600</v>
+      </c>
+      <c r="E76" s="3">
         <v>463600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>484400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>463800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>452300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>431200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>420400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>424300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>409600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>408200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>384000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>386800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>364000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>341400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>292300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E81" s="3">
         <v>9200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>15300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>16600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>18600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>19700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>15900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>8500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-29200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>12500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>11700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4034,49 +4233,52 @@
         <v>7100</v>
       </c>
       <c r="E83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F83" s="3">
         <v>7200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7400</v>
-      </c>
-      <c r="H83" s="3">
-        <v>7900</v>
       </c>
       <c r="I83" s="3">
         <v>7900</v>
       </c>
       <c r="J83" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K83" s="3">
         <v>8000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>9300</v>
-      </c>
-      <c r="M83" s="3">
-        <v>9100</v>
       </c>
       <c r="N83" s="3">
         <v>9100</v>
       </c>
       <c r="O83" s="3">
+        <v>9100</v>
+      </c>
+      <c r="P83" s="3">
         <v>8700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>5800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E89" s="3">
         <v>36500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>32400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>40000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>25700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>26200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>19500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>18400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>16500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>20300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>14400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>11900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>22900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>4300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>2600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-16600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-215900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4633,7 +4867,7 @@
         <v>-1400</v>
       </c>
       <c r="H96" s="3">
-        <v>-1200</v>
+        <v>-1400</v>
       </c>
       <c r="I96" s="3">
         <v>-1200</v>
@@ -4645,7 +4879,7 @@
         <v>-1200</v>
       </c>
       <c r="L96" s="3">
-        <v>-900</v>
+        <v>-1200</v>
       </c>
       <c r="M96" s="3">
         <v>-900</v>
@@ -4660,13 +4894,16 @@
         <v>-900</v>
       </c>
       <c r="Q96" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="R96" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-20800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-18600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-10900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-16000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-27500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-16200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-16400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-15500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-12600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-15000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>226600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-6400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-12200</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E102" s="3">
         <v>30400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>12000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>16300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-15400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>13000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-13000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>26100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>5800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>CMCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>157800</v>
+      </c>
+      <c r="E8" s="3">
         <v>139100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>189500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>199400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>207600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>212700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>216700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>217400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>217100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>225000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>214100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>208700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>212800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>203700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>183700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>152500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>151900</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>101800</v>
+      </c>
+      <c r="E9" s="3">
         <v>94300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>123300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>131500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>134100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>137100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>140700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>144000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>141200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>145300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>139500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>279700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>282700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>269200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>133400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>107700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E10" s="3">
         <v>44800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>66200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>67900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>73500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>75600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>76000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>73400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>75900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>79700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>74600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-71000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-69900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-65500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>50300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>44800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,52 +935,53 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E12" s="3">
         <v>2800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3100</v>
-      </c>
-      <c r="L12" s="3">
-        <v>3700</v>
       </c>
       <c r="M12" s="3">
         <v>3700</v>
       </c>
       <c r="N12" s="3">
+        <v>3700</v>
+      </c>
+      <c r="O12" s="3">
         <v>3300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2900</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>8</v>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1046,23 +1066,23 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-1000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>15600</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>11100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
@@ -1073,24 +1093,27 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>2400</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E15" s="3">
         <v>3100</v>
-      </c>
-      <c r="E15" s="3">
-        <v>3200</v>
       </c>
       <c r="F15" s="3">
         <v>3200</v>
@@ -1099,43 +1122,46 @@
         <v>3200</v>
       </c>
       <c r="H15" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I15" s="3">
         <v>3300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4000</v>
-      </c>
-      <c r="N15" s="3">
-        <v>3900</v>
       </c>
       <c r="O15" s="3">
         <v>3900</v>
       </c>
       <c r="P15" s="3">
+        <v>3900</v>
+      </c>
+      <c r="Q15" s="3">
         <v>3700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2800</v>
-      </c>
-      <c r="R15" s="3">
-        <v>1800</v>
       </c>
       <c r="S15" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>142000</v>
+      </c>
+      <c r="E17" s="3">
         <v>137300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>172800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>178500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>182400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>185700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>192300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>210800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>192300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>211500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>197800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>195000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>193600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>184100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>188200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>147200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>139300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E18" s="3">
         <v>1800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>16700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>20900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>25200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>27000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>24400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>24800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>13500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>16300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>13700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>19200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>19600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E21" s="3">
         <v>6300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>24500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>28200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>32800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>35000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>32500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>14600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>32800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>22900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>25000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>23300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>28700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>28600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>9600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="E22" s="3">
         <v>3200</v>
       </c>
       <c r="F22" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G22" s="3">
         <v>3400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4900</v>
-      </c>
-      <c r="O22" s="3">
-        <v>5100</v>
       </c>
       <c r="P22" s="3">
         <v>5100</v>
       </c>
       <c r="Q22" s="3">
+        <v>5100</v>
+      </c>
+      <c r="R22" s="3">
         <v>3600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>14200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>17500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>21700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>23700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>20600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>20500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>9500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>11100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>14600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>14800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-8400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>900</v>
-      </c>
-      <c r="J24" s="3">
-        <v>4600</v>
       </c>
       <c r="K24" s="3">
         <v>4600</v>
       </c>
       <c r="L24" s="3">
+        <v>4600</v>
+      </c>
+      <c r="M24" s="3">
         <v>1800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>19900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-3700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>9200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>15300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>16600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>18600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>19700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>15900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-10600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>12500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>11700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>9200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>15300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>16600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>18600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>19700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>15900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-10600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>12500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>11700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1776,26 +1837,26 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>1500</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>1000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-18600</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E32" s="3">
         <v>2600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>9200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>15300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>16600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>18600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>19700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>15900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>8500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-29200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>12500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>11700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>9200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>15300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>16600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>18600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>19700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>15900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>8500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-29200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>12500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>11700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>186600</v>
+      </c>
+      <c r="E41" s="3">
         <v>152200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>114500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>84000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>72000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>55700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>71100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>58100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>57700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>57100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>63000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>64600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>69500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>64600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>77600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>51500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>45700</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,379 +2423,403 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>92500</v>
+      </c>
+      <c r="E43" s="3">
         <v>96500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>123700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>125400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>130000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>135500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>129200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>123400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>132100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>129800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>127800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>123500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>126400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>119700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>111600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>74900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>80400</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>112100</v>
+      </c>
+      <c r="E44" s="3">
         <v>124600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>127400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>135400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>142400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>151000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>146300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>149700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>158300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>155700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>152900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>144700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>139300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>135300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>130600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>109100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>116200</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E45" s="3">
         <v>19700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>17200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>16100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>16600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>17000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>16800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>16600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>17800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>16800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>19600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>21100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>16300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>409300</v>
+      </c>
+      <c r="E46" s="3">
         <v>392900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>382700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>361700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>361100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>358100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>362600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>347800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>365100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>359400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>360300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>350500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>352000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>339300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>341000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>251800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>256500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E47" s="3">
         <v>7500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>7300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>7400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>7900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>7600</v>
-      </c>
-      <c r="I47" s="3">
-        <v>7000</v>
       </c>
       <c r="J47" s="3">
         <v>7000</v>
       </c>
       <c r="K47" s="3">
+        <v>7000</v>
+      </c>
+      <c r="L47" s="3">
         <v>7200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>8100</v>
-      </c>
-      <c r="P47" s="3">
-        <v>7700</v>
       </c>
       <c r="Q47" s="3">
         <v>7700</v>
       </c>
       <c r="R47" s="3">
+        <v>7700</v>
+      </c>
+      <c r="S47" s="3">
         <v>8100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>109900</v>
+      </c>
+      <c r="E48" s="3">
         <v>113700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>79500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>81100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>82700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>85100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>87300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>88700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>102300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>104500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>113100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>111800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>113100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>112700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>113000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>99200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>550300</v>
+      </c>
+      <c r="E49" s="3">
         <v>540000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>537600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>546000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>540300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>556800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>555800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>566300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>574000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>580000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>611200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>605000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>603000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>595100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>575500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>285500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>289700</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>53800</v>
+      </c>
+      <c r="E52" s="3">
         <v>48400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>86100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>83700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>79400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>82900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>48900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>52800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>55400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>56100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>50200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>56200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>69600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>71600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>76700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>81000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>81900</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1131900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1102600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1093300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1079900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1071400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1090500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1061600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1062500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1104000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1107600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1142400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1131100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1145700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1126400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1113800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>725600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>739700</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E57" s="3">
         <v>38900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>57300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>46300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>49000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>40200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>47000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>39700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>41400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>43400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>47000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>42900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>42000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>40500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>41000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>28200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3073,10 +3207,10 @@
         <v>29500</v>
       </c>
       <c r="E58" s="3">
+        <v>29500</v>
+      </c>
+      <c r="F58" s="3">
         <v>4500</v>
-      </c>
-      <c r="F58" s="3">
-        <v>65000</v>
       </c>
       <c r="G58" s="3">
         <v>65000</v>
@@ -3088,7 +3222,7 @@
         <v>65000</v>
       </c>
       <c r="J58" s="3">
-        <v>60000</v>
+        <v>65000</v>
       </c>
       <c r="K58" s="3">
         <v>60000</v>
@@ -3097,240 +3231,255 @@
         <v>60000</v>
       </c>
       <c r="M58" s="3">
-        <v>60100</v>
+        <v>60000</v>
       </c>
       <c r="N58" s="3">
         <v>60100</v>
       </c>
       <c r="O58" s="3">
+        <v>60100</v>
+      </c>
+      <c r="P58" s="3">
         <v>49700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>49800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>52600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>13100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>88700</v>
+      </c>
+      <c r="E59" s="3">
         <v>91900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>93600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>94200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>95100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>99800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>99300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>95500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>95600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>92300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>100000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>90900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>88100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>85300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>97400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>51200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>155900</v>
+      </c>
+      <c r="E60" s="3">
         <v>160300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>155300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>205500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>209100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>205000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>211300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>195300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>197000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>195800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>207000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>193900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>179800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>175600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>191000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>92500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>123100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>245700</v>
+      </c>
+      <c r="E61" s="3">
         <v>246300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>246900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>186900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>206400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>225800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>235300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>254800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>279300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>293800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>303300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>317800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>342500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>358200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>368800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>221100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>196800</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>250400</v>
+      </c>
+      <c r="E62" s="3">
         <v>229400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>227500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>203100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>192100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>207300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>183800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>192000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>203400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>208400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>224000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>235400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>236600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>228600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>212800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>119700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>121300</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>652000</v>
+      </c>
+      <c r="E66" s="3">
         <v>636000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>629700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>595500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>607600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>638200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>630400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>642100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>679700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>698000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>734200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>747100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>758900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>762400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>772500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>433300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>441200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>281900</v>
+      </c>
+      <c r="E72" s="3">
         <v>287500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>290400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>284000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>270200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>255000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>236500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>219300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>221200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>206500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>197900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>191500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>203000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>191400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>179700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>186300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>186600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>480000</v>
+      </c>
+      <c r="E76" s="3">
         <v>466600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>463600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>484400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>463800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>452300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>431200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>420400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>424300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>409600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>408200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>384000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>386800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>364000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>341400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>292300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>9200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>15300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>16600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>18600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>19700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>15900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>8500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-29200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>12500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>11700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4236,49 +4435,52 @@
         <v>7100</v>
       </c>
       <c r="F83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="G83" s="3">
         <v>7200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7400</v>
-      </c>
-      <c r="I83" s="3">
-        <v>7900</v>
       </c>
       <c r="J83" s="3">
         <v>7900</v>
       </c>
       <c r="K83" s="3">
+        <v>7900</v>
+      </c>
+      <c r="L83" s="3">
         <v>8000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>9300</v>
-      </c>
-      <c r="N83" s="3">
-        <v>9100</v>
       </c>
       <c r="O83" s="3">
         <v>9100</v>
       </c>
       <c r="P83" s="3">
+        <v>9100</v>
+      </c>
+      <c r="Q83" s="3">
         <v>8700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E89" s="3">
         <v>9500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>36500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>32400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>40000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>25700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>26200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>19500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>18400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>16500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>20300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>14400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>11900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>22900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E94" s="3">
         <v>5400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>4300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>2600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-16600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-215900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4870,7 +5104,7 @@
         <v>-1400</v>
       </c>
       <c r="I96" s="3">
-        <v>-1200</v>
+        <v>-1400</v>
       </c>
       <c r="J96" s="3">
         <v>-1200</v>
@@ -4882,7 +5116,7 @@
         <v>-1200</v>
       </c>
       <c r="M96" s="3">
-        <v>-900</v>
+        <v>-1200</v>
       </c>
       <c r="N96" s="3">
         <v>-900</v>
@@ -4897,13 +5131,16 @@
         <v>-900</v>
       </c>
       <c r="R96" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="S96" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E100" s="3">
         <v>21700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-20800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-18600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-10900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-16000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-27500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-16200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-16400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-15500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-12600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>226600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-6400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-12200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E101" s="3">
         <v>1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E102" s="3">
         <v>37800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>30400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>12000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>16300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-15400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>13000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>26100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>5800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>CMCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>166500</v>
+      </c>
+      <c r="E8" s="3">
         <v>157800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>139100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>189500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>199400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>207600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>212700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>216700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>217400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>217100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>225000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>214100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>208700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>212800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>203700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>183700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>152500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>151900</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>111200</v>
+      </c>
+      <c r="E9" s="3">
         <v>101800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>94300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>123300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>131500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>134100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>137100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>140700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>144000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>141200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>145300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>139500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>279700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>282700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>269200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>133400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>107700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E10" s="3">
         <v>56000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>44800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>66200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>67900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>73500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>75600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>76000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>73400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>75900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>79700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>74600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-71000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-69900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-65500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>50300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>44800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,55 +948,56 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3100</v>
-      </c>
-      <c r="M12" s="3">
-        <v>3700</v>
       </c>
       <c r="N12" s="3">
         <v>3700</v>
       </c>
       <c r="O12" s="3">
+        <v>3700</v>
+      </c>
+      <c r="P12" s="3">
         <v>3300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2900</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>8</v>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1069,23 +1088,23 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-1000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>15600</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>11100</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1096,27 +1115,30 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>2400</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E15" s="3">
         <v>3200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3100</v>
-      </c>
-      <c r="F15" s="3">
-        <v>3200</v>
       </c>
       <c r="G15" s="3">
         <v>3200</v>
@@ -1125,43 +1147,46 @@
         <v>3200</v>
       </c>
       <c r="I15" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J15" s="3">
         <v>3300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4000</v>
-      </c>
-      <c r="O15" s="3">
-        <v>3900</v>
       </c>
       <c r="P15" s="3">
         <v>3900</v>
       </c>
       <c r="Q15" s="3">
+        <v>3900</v>
+      </c>
+      <c r="R15" s="3">
         <v>3700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>2800</v>
-      </c>
-      <c r="S15" s="3">
-        <v>1800</v>
       </c>
       <c r="T15" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>156100</v>
+      </c>
+      <c r="E17" s="3">
         <v>142000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>137300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>172800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>178500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>182400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>185700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>192300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>210800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>192300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>211500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>197800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>195000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>193600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>184100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>188200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>147200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>139300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E18" s="3">
         <v>15800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>16700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>20900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>25200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>27000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>24400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>24800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>13500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>16300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>13700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>19200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>19600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-4500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>5300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1345,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-17000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E21" s="3">
         <v>6000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>6300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>24500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>28200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>32800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>35000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>32500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>14600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>32800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>22900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>25000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>23300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>28700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>28600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>9600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1434,167 +1473,176 @@
         <v>3000</v>
       </c>
       <c r="E22" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="F22" s="3">
         <v>3200</v>
       </c>
       <c r="G22" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H22" s="3">
         <v>3400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4900</v>
-      </c>
-      <c r="P22" s="3">
-        <v>5100</v>
       </c>
       <c r="Q22" s="3">
         <v>5100</v>
       </c>
       <c r="R22" s="3">
+        <v>5100</v>
+      </c>
+      <c r="S22" s="3">
         <v>3600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>14200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>17500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>21700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>23700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>20600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>20500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>11100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>9300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>14600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>14800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-8400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>900</v>
-      </c>
-      <c r="K24" s="3">
-        <v>4600</v>
       </c>
       <c r="L24" s="3">
         <v>4600</v>
       </c>
       <c r="M24" s="3">
+        <v>4600</v>
+      </c>
+      <c r="N24" s="3">
         <v>1800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>19900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-3700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>9200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>15300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>16600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>18600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>19700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>15900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-10600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>12500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>11700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>15300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>16600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>18600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>19700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>15900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-10600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>12500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>11700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1840,26 +1900,26 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>1500</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>1000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-18600</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
         <v>17000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>15300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>16600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>18600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>19700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>15900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>8500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-29200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>12500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>11700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>15300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>16600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>18600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>19700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>15900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>8500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-29200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>12500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>11700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>187600</v>
+      </c>
+      <c r="E41" s="3">
         <v>186600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>152200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>114500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>84000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>72000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>55700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>71100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>58100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>57700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>57100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>63000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>64600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>69500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>64600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>77600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>51500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>45700</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,400 +2515,424 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>94200</v>
+      </c>
+      <c r="E43" s="3">
         <v>92500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>96500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>123700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>125400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>130000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>135500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>129200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>123400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>132100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>129800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>127800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>123500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>126400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>119700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>111600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>74900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>80400</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>113400</v>
+      </c>
+      <c r="E44" s="3">
         <v>112100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>124600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>127400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>135400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>142400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>151000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>146300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>149700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>158300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>155700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>152900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>144700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>139300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>135300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>130600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>109100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>116200</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E45" s="3">
         <v>18100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>17200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>16700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>16100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>16600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>17000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>16800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>16600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>17800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>16800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>19600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>21100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>16300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>414100</v>
+      </c>
+      <c r="E46" s="3">
         <v>409300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>392900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>382700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>361700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>361100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>358100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>362600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>347800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>365100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>359400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>360300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>350500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>352000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>339300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>341000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>251800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>256500</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8500</v>
+        <v>10900</v>
       </c>
       <c r="E47" s="3">
-        <v>7500</v>
+        <v>11200</v>
       </c>
       <c r="F47" s="3">
+        <v>11200</v>
+      </c>
+      <c r="G47" s="3">
         <v>7300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>7400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>7900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>7600</v>
-      </c>
-      <c r="J47" s="3">
-        <v>7000</v>
       </c>
       <c r="K47" s="3">
         <v>7000</v>
       </c>
       <c r="L47" s="3">
+        <v>7000</v>
+      </c>
+      <c r="M47" s="3">
         <v>7200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>7600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>8100</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>7700</v>
       </c>
       <c r="R47" s="3">
         <v>7700</v>
       </c>
       <c r="S47" s="3">
+        <v>7700</v>
+      </c>
+      <c r="T47" s="3">
         <v>8100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>108600</v>
+      </c>
+      <c r="E48" s="3">
         <v>109900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>113700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>79500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>81100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>82700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>85100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>87300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>88700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>102300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>104500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>113100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>111800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>113100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>112700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>113000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>99200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>560700</v>
+      </c>
+      <c r="E49" s="3">
         <v>550300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>540000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>537600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>546000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>540300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>556800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>555800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>566300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>574000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>580000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>611200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>605000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>603000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>595100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>575500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>285500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>289700</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>53800</v>
+        <v>53000</v>
       </c>
       <c r="E52" s="3">
-        <v>48400</v>
+        <v>51200</v>
       </c>
       <c r="F52" s="3">
+        <v>44700</v>
+      </c>
+      <c r="G52" s="3">
         <v>86100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>83700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>79400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>82900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>48900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>52800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>55400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>56100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>50200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>56200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>69600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>71600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>76700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>81000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>81900</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1147400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1131900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1102600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1093300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1079900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1071400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1090500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1061600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1062500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1104000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1107600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1142400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1131100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1145700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1126400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1113800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>725600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>739700</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,78 +3271,82 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>49600</v>
+      </c>
+      <c r="E57" s="3">
         <v>37700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>38900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>57300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>46300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>49000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>40200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>47000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>39700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>41400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>43400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>47000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>42900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>42000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>40500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>41000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>28200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>29500</v>
+        <v>4500</v>
       </c>
       <c r="E58" s="3">
         <v>29500</v>
       </c>
       <c r="F58" s="3">
+        <v>29500</v>
+      </c>
+      <c r="G58" s="3">
         <v>4500</v>
-      </c>
-      <c r="G58" s="3">
-        <v>65000</v>
       </c>
       <c r="H58" s="3">
         <v>65000</v>
@@ -3225,7 +3358,7 @@
         <v>65000</v>
       </c>
       <c r="K58" s="3">
-        <v>60000</v>
+        <v>65000</v>
       </c>
       <c r="L58" s="3">
         <v>60000</v>
@@ -3234,252 +3367,267 @@
         <v>60000</v>
       </c>
       <c r="N58" s="3">
-        <v>60100</v>
+        <v>60000</v>
       </c>
       <c r="O58" s="3">
         <v>60100</v>
       </c>
       <c r="P58" s="3">
+        <v>60100</v>
+      </c>
+      <c r="Q58" s="3">
         <v>49700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>49800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>52600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>13100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>90100</v>
+      </c>
+      <c r="E59" s="3">
         <v>88700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>91900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>93600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>94200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>95100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>99800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>99300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>95500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>95600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>92300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>100000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>90900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>88100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>85300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>97400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>51200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>144100</v>
+      </c>
+      <c r="E60" s="3">
         <v>155900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>160300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>155300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>205500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>209100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>205000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>211300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>195300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>197000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>195800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>207000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>193900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>179800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>175600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>191000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>92500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>123100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>245100</v>
+      </c>
+      <c r="E61" s="3">
         <v>245700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>246300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>246900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>186900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>206400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>225800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>235300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>254800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>279300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>293800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>303300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>317800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>342500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>358200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>368800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>221100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>196800</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>260900</v>
+      </c>
+      <c r="E62" s="3">
         <v>250400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>229400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>227500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>203100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>192100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>207300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>183800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>192000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>203400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>208400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>224000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>235400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>236600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>228600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>212800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>119700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>121300</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>650100</v>
+      </c>
+      <c r="E66" s="3">
         <v>652000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>636000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>629700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>595500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>607600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>638200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>630400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>642100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>679700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>698000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>734200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>747100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>758900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>762400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>772500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>433300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>441200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>287100</v>
+      </c>
+      <c r="E72" s="3">
         <v>281900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>287500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>290400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>284000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>270200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>255000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>236500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>219300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>221200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>206500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>197900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>191500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>203000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>191400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>179700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>186300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>186600</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>497300</v>
+      </c>
+      <c r="E76" s="3">
         <v>480000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>466600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>463600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>484400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>463800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>452300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>431200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>420400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>424300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>409600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>408200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>384000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>386800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>364000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>341400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>292300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>15300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>16600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>18600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>19700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>15900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>8500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-29200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>12500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>11700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,13 +4620,14 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="E83" s="3">
         <v>7100</v>
@@ -4438,49 +4636,52 @@
         <v>7100</v>
       </c>
       <c r="G83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="H83" s="3">
         <v>7200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>7900</v>
       </c>
       <c r="K83" s="3">
         <v>7900</v>
       </c>
       <c r="L83" s="3">
+        <v>7900</v>
+      </c>
+      <c r="M83" s="3">
         <v>8000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9300</v>
-      </c>
-      <c r="O83" s="3">
-        <v>9100</v>
       </c>
       <c r="P83" s="3">
         <v>9100</v>
       </c>
       <c r="Q83" s="3">
+        <v>9100</v>
+      </c>
+      <c r="R83" s="3">
         <v>8700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>7500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>5800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E89" s="3">
         <v>37400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>9500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>36500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>32400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>40000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>25700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>26200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>19500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>18400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>16500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>20300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>14400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>11900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>22900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>5400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>4300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-16600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-215900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-8100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5107,7 +5340,7 @@
         <v>-1400</v>
       </c>
       <c r="J96" s="3">
-        <v>-1200</v>
+        <v>-1400</v>
       </c>
       <c r="K96" s="3">
         <v>-1200</v>
@@ -5119,7 +5352,7 @@
         <v>-1200</v>
       </c>
       <c r="N96" s="3">
-        <v>-900</v>
+        <v>-1200</v>
       </c>
       <c r="O96" s="3">
         <v>-900</v>
@@ -5134,13 +5367,16 @@
         <v>-900</v>
       </c>
       <c r="S96" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="T96" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>21700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-20800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-18600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-10900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-16000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-27500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-16200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-8100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-16400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-15500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-12600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-15000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>226600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-6400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-12200</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E101" s="3">
         <v>3000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>4200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E102" s="3">
         <v>34300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>37800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>30400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>12000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>16300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-15400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>13000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-13000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>26100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>5800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>CMCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,295 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>213500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>186200</v>
+      </c>
+      <c r="F8" s="3">
         <v>166500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>157800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>139100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>189500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>199400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>207600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>212700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>216700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>217400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>217100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>225000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>214100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>208700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>212800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>203700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>183700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>152500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>151900</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>135900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>122100</v>
+      </c>
+      <c r="F9" s="3">
         <v>111200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>101800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>94300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>123300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>131500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>134100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>137100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>140700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>144000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>141200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>145300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>139500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>279700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>282700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>269200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>133400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>107700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>77600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>64100</v>
+      </c>
+      <c r="F10" s="3">
         <v>55300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>56000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>44800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>66200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>67900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>73500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>75600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>76000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>73400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>75900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>79700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>74600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>-71000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>-69900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>-65500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>50300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>44800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,67 +975,75 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F12" s="3">
         <v>3000</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2900</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2800</v>
       </c>
       <c r="G12" s="3">
         <v>2900</v>
       </c>
       <c r="H12" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J12" s="3">
         <v>2600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>3000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>2800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>3400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>3300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>3100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>3700</v>
-      </c>
-      <c r="O12" s="3">
-        <v>3700</v>
-      </c>
-      <c r="P12" s="3">
-        <v>3300</v>
       </c>
       <c r="Q12" s="3">
         <v>3700</v>
       </c>
       <c r="R12" s="3">
+        <v>3300</v>
+      </c>
+      <c r="S12" s="3">
+        <v>3700</v>
+      </c>
+      <c r="T12" s="3">
         <v>2900</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,13 +1101,19 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>27000</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1091,26 +1131,26 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-1000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>15600</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>11100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
@@ -1118,21 +1158,27 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>2400</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3100</v>
+        <v>6100</v>
       </c>
       <c r="E15" s="3">
         <v>3200</v>
@@ -1144,49 +1190,55 @@
         <v>3200</v>
       </c>
       <c r="H15" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="I15" s="3">
         <v>3200</v>
       </c>
       <c r="J15" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K15" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L15" s="3">
         <v>3300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>3500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>3700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>3800</v>
-      </c>
-      <c r="N15" s="3">
-        <v>3900</v>
-      </c>
-      <c r="O15" s="3">
-        <v>4000</v>
       </c>
       <c r="P15" s="3">
         <v>3900</v>
       </c>
       <c r="Q15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="R15" s="3">
         <v>3900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
+        <v>3900</v>
+      </c>
+      <c r="T15" s="3">
         <v>3700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>2800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>1800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1257,140 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>217500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>172000</v>
+      </c>
+      <c r="F17" s="3">
         <v>156100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>142000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>137300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>172800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>178500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>182400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>185700</v>
-      </c>
-      <c r="K17" s="3">
-        <v>192300</v>
-      </c>
-      <c r="L17" s="3">
-        <v>210800</v>
       </c>
       <c r="M17" s="3">
         <v>192300</v>
       </c>
       <c r="N17" s="3">
+        <v>210800</v>
+      </c>
+      <c r="O17" s="3">
+        <v>192300</v>
+      </c>
+      <c r="P17" s="3">
         <v>211500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>197800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>195000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>193600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>184100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>188200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>147200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>139300</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F18" s="3">
         <v>10400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>15800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>1800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>16700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>20900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>25200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>27000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>24400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>6600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>24800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>13500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>16300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>13700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>19200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>19600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-4500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>5300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,303 +1412,335 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-17000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-2600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-1500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>20800</v>
+      </c>
+      <c r="F21" s="3">
         <v>17200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>6000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>6300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>24500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>28200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>32800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>35000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>32500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>14600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>32800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>22900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>25000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>23300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>28700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>28600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>2600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>9600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F22" s="3">
         <v>3000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>3000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>3200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>3200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>3400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>3800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>3900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>4000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>4300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>4200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>4600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>4700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>4900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>5100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>5100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>3600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>2300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>10900</v>
+      </c>
+      <c r="F23" s="3">
         <v>7200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-4100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-3900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>14200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>17500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>21700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>23700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>20600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>2300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>20500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>9500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>11100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>9300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>14600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>14800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-8400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>1500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>4900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>2200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>5100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>5200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>4600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>4600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>3600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>19900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>2100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>3100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-3700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>1000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1798,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F26" s="3">
         <v>6600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-4100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-3000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>9200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>15300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>16600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>18600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>19700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>15900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>7700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>7400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>12500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>11700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-4700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F27" s="3">
         <v>6600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-4100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-3000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>9200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>15300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>16600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>18600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>19700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>15900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>7700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>7400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>12500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>11700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-4700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1993,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1903,29 +2025,29 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>1500</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>1000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>-18600</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -1936,8 +2058,14 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2188,144 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>17000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>2600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>1500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F33" s="3">
         <v>6600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-4100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-3000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>9200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>15300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>16600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>18600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>19700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>15900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>7700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>8500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-29200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>12500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>11700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-4700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2383,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F35" s="3">
         <v>6600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-4100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-3000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>9200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>15300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>16600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>18600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>19700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>15900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>7700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>8500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-29200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>12500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>11700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-4700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2572,75 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>88700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>202100</v>
+      </c>
+      <c r="F41" s="3">
         <v>187600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>186600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>152200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>114500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>84000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>72000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>55700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>71100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>58100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>57700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>57100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>63000</v>
-      </c>
-      <c r="P41" s="3">
-        <v>64600</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>69500</v>
       </c>
       <c r="R41" s="3">
         <v>64600</v>
       </c>
       <c r="S41" s="3">
+        <v>69500</v>
+      </c>
+      <c r="T41" s="3">
+        <v>64600</v>
+      </c>
+      <c r="U41" s="3">
         <v>77600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>51500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>45700</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,421 +2698,469 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>123200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>105500</v>
+      </c>
+      <c r="F43" s="3">
         <v>94200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>92500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>96500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>123700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>125400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>130000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>135500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>129200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>123400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>132100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>129800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>127800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>123500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>126400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>119700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>111600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>74900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>80400</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>138700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>111500</v>
+      </c>
+      <c r="F44" s="3">
         <v>113400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>112100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>124600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>127400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>135400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>142400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>151000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>146300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>149700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>158300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>155700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>152900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>144700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>139300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>135300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>130600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>109100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>116200</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>22800</v>
+      </c>
+      <c r="F45" s="3">
         <v>18900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>18100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>19700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>17200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>16900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>16700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>15900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>16100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>16600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>17000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>16800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>16600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>17800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>16800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>19600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>21100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>16300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>382200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>441800</v>
+      </c>
+      <c r="F46" s="3">
         <v>414100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>409300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>392900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>382700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>361700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>361100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>358100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>362600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>347800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>365100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>359400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>360300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>350500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>352000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>339300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>341000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>251800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>256500</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E47" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F47" s="3">
         <v>10900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>11200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>11200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>7300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>7400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>7900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>7600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>7000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>7000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>7200</v>
-      </c>
-      <c r="N47" s="3">
-        <v>7600</v>
-      </c>
-      <c r="O47" s="3">
-        <v>7700</v>
       </c>
       <c r="P47" s="3">
         <v>7600</v>
       </c>
       <c r="Q47" s="3">
+        <v>7700</v>
+      </c>
+      <c r="R47" s="3">
+        <v>7600</v>
+      </c>
+      <c r="S47" s="3">
         <v>8100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>7700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>7700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>8100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>133400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>108900</v>
+      </c>
+      <c r="F48" s="3">
         <v>108600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>109900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>113700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>79500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>81100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>82700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>85100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>87300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>88700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>102300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>104500</v>
-      </c>
-      <c r="O48" s="3">
-        <v>113100</v>
-      </c>
-      <c r="P48" s="3">
-        <v>111800</v>
       </c>
       <c r="Q48" s="3">
         <v>113100</v>
       </c>
       <c r="R48" s="3">
+        <v>111800</v>
+      </c>
+      <c r="S48" s="3">
+        <v>113100</v>
+      </c>
+      <c r="T48" s="3">
         <v>112700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>113000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>99200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1023800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>544500</v>
+      </c>
+      <c r="F49" s="3">
         <v>560700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>550300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>540000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>537600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>546000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>540300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>556800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>555800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>566300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>574000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>580000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>611200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>605000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>603000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>595100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>575500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>285500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>289700</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3283,79 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>44100</v>
+      </c>
+      <c r="F52" s="3">
         <v>53000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>51200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>44700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>86100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>83700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>79400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>82900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>48900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>52800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>55400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>56100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>50200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>56200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>69600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>71600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>76700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>81000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>81900</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3413,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1580600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1150400</v>
+      </c>
+      <c r="F54" s="3">
         <v>1147400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1131900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1102600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1093300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1079900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1071400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1090500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1061600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1062500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1104000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1107600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1142400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1131100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1145700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1126400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1113800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>725600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>739700</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,87 +3532,95 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>71600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>68600</v>
+      </c>
+      <c r="F57" s="3">
         <v>49600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>37700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>38900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>57300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>46300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>49000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>40200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>47000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>39700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>41400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>43400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>47000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>42900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>42000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>40500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>41000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>28200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>60500</v>
+      </c>
+      <c r="E58" s="3">
         <v>4500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G58" s="3">
         <v>29500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>29500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>4500</v>
-      </c>
-      <c r="H58" s="3">
-        <v>65000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>65000</v>
       </c>
       <c r="J58" s="3">
         <v>65000</v>
@@ -3361,273 +3629,303 @@
         <v>65000</v>
       </c>
       <c r="L58" s="3">
-        <v>60000</v>
+        <v>65000</v>
       </c>
       <c r="M58" s="3">
-        <v>60000</v>
+        <v>65000</v>
       </c>
       <c r="N58" s="3">
         <v>60000</v>
       </c>
       <c r="O58" s="3">
+        <v>60000</v>
+      </c>
+      <c r="P58" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Q58" s="3">
         <v>60100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>60100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>49700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>49800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>52600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>13100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>113100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>110800</v>
+      </c>
+      <c r="F59" s="3">
         <v>90100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>88700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>91900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>93600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>94200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>95100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>99800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>99300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>95500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>95600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>92300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>100000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>90900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>88100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>85300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>97400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>51200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>245200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>183900</v>
+      </c>
+      <c r="F60" s="3">
         <v>144100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>155900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>160300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>155300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>205500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>209100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>205000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>211300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>195300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>197000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>195800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>207000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>193900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>179800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>175600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>191000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>92500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>123100</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>398800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>244500</v>
+      </c>
+      <c r="F61" s="3">
         <v>245100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>245700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>246300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>246900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>186900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>206400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>225800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>235300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>254800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>279300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>293800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>303300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>317800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>342500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>358200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>368800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>221100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>196800</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>212200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>191900</v>
+      </c>
+      <c r="F62" s="3">
         <v>260900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>250400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>229400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>227500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>203100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>192100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>207300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>183800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>192000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>203400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>208400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>224000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>235400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>236600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>228600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>212800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>119700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>121300</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +4113,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>856200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>620300</v>
+      </c>
+      <c r="F66" s="3">
         <v>650100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>652000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>636000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>629700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>595500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>607600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>638200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>630400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>642100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>679700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>698000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>734200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>747100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>758900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>762400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>772500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>433300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>441200</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4463,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>286500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>293800</v>
+      </c>
+      <c r="F72" s="3">
         <v>287100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>281900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>287500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>290400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>284000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>270200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>255000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>236500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>219300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>221200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>206500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>197900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>191500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>203000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>191400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>179700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>186300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>186600</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4723,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>724500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>530100</v>
+      </c>
+      <c r="F76" s="3">
         <v>497300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>480000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>466600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>463600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>484400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>463800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>452300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>431200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>420400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>424300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>409600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>408200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>384000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>386800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>364000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>341400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>292300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4853,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F81" s="3">
         <v>6600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-4100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-3000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>9200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>15300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>16600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>18600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>19700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>15900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>7700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>8500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-29200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>12500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>11700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-4700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +5017,75 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E83" s="3">
         <v>7000</v>
       </c>
-      <c r="E83" s="3">
-        <v>7100</v>
-      </c>
       <c r="F83" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="G83" s="3">
         <v>7100</v>
       </c>
       <c r="H83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="I83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="J83" s="3">
         <v>7200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>7300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>7400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>7900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>7900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>8000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>8800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>9300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>9100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>9100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>8700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>7500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>5800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5403,79 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>26900</v>
+      </c>
+      <c r="F89" s="3">
         <v>25000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>37400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>9500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>36500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>32400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>40000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>25700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>26200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>19500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>8100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>18400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>16500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>20300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>14400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>11900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>22900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5497,75 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-2700</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-3000</v>
       </c>
       <c r="J91" s="3">
         <v>-1900</v>
       </c>
       <c r="K91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="M91" s="3">
         <v>-5100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-2400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-2500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-2300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-5100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-4200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-1900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-3100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-2800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5688,79 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-480400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-2900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>5400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-3000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-3200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-2400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>4300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>2600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-2400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-2100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-5300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-4300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-16600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-215900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-8100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5782,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5343,10 +5811,10 @@
         <v>-1400</v>
       </c>
       <c r="K96" s="3">
-        <v>-1200</v>
+        <v>-1400</v>
       </c>
       <c r="L96" s="3">
-        <v>-1200</v>
+        <v>-1400</v>
       </c>
       <c r="M96" s="3">
         <v>-1200</v>
@@ -5355,10 +5823,10 @@
         <v>-1200</v>
       </c>
       <c r="O96" s="3">
-        <v>-900</v>
+        <v>-1200</v>
       </c>
       <c r="P96" s="3">
-        <v>-900</v>
+        <v>-1200</v>
       </c>
       <c r="Q96" s="3">
         <v>-900</v>
@@ -5370,13 +5838,19 @@
         <v>-900</v>
       </c>
       <c r="T96" s="3">
+        <v>-900</v>
+      </c>
+      <c r="U96" s="3">
+        <v>-900</v>
+      </c>
+      <c r="V96" s="3">
         <v>-800</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +6038,205 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>373800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F100" s="3">
         <v>-26200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-3200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>21700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-1100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-20800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-18600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-10900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-16000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-27500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-16200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-8100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-16400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-12600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-15000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>226600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-6400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-12200</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>600</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F101" s="3">
         <v>4000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>3000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>1100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>1800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-1900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-3900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>1800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>1500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>4200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>3400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-2600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-113500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>14500</v>
+      </c>
+      <c r="F102" s="3">
         <v>1100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>34300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>37800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>30400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>12000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>16300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-15400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>13000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-5900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>4800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-13000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>26100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>5800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>2500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>CMCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>223600</v>
+      </c>
+      <c r="E8" s="3">
         <v>213500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>186200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>166500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>157800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>139100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>189500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>199400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>207600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>212700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>216700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>217400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>217100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>225000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>214100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>208700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>212800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>203700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>183700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>152500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>151900</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>142500</v>
+      </c>
+      <c r="E9" s="3">
         <v>135900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>122100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>111200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>101800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>94300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>123300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>131500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>134100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>137100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>140700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>144000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>141200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>145300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>139500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>279700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>282700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>269200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>133400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>107700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>81100</v>
+      </c>
+      <c r="E10" s="3">
         <v>77600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>64100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>55300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>56000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>44800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>66200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>67900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>73500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>75600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>76000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>73400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>75900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>79700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>74600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-71000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-69900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-65500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>50300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>44800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,64 +990,65 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E12" s="3">
         <v>3600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3100</v>
-      </c>
-      <c r="P12" s="3">
-        <v>3700</v>
       </c>
       <c r="Q12" s="3">
         <v>3700</v>
       </c>
       <c r="R12" s="3">
+        <v>3700</v>
+      </c>
+      <c r="S12" s="3">
         <v>3300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>3700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>2900</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>8</v>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,17 +1124,20 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>400</v>
+      </c>
+      <c r="E14" s="3">
         <v>27000</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
@@ -1137,23 +1157,23 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-1000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>15600</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>11100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
@@ -1164,36 +1184,39 @@
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>2400</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E15" s="3">
         <v>6100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>3200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>3200</v>
       </c>
       <c r="J15" s="3">
         <v>3200</v>
@@ -1202,43 +1225,46 @@
         <v>3200</v>
       </c>
       <c r="L15" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M15" s="3">
         <v>3300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4000</v>
-      </c>
-      <c r="R15" s="3">
-        <v>3900</v>
       </c>
       <c r="S15" s="3">
         <v>3900</v>
       </c>
       <c r="T15" s="3">
+        <v>3900</v>
+      </c>
+      <c r="U15" s="3">
         <v>3700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>2800</v>
-      </c>
-      <c r="V15" s="3">
-        <v>1800</v>
       </c>
       <c r="W15" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200000</v>
+      </c>
+      <c r="E17" s="3">
         <v>217500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>172000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>156100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>142000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>137300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>172800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>178500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>182400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>185700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>192300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>210800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>192300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>211500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>197800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>195000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>193600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>184100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>188200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>147200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>139300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>14200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>10400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>15800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>16700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>20900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>25200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>27000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>24400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>24800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>13500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>16300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>13700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>19200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>19600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-4500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>5300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-17000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E21" s="3">
         <v>6500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>20800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>17200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>6000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>6300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>24500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>28200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>32800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>35000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>32500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>14600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>32800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>22900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>25000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>23300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>28700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>28600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>9600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E22" s="3">
         <v>5800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2900</v>
-      </c>
-      <c r="F22" s="3">
-        <v>3000</v>
       </c>
       <c r="G22" s="3">
         <v>3000</v>
       </c>
       <c r="H22" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="I22" s="3">
         <v>3200</v>
       </c>
       <c r="J22" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K22" s="3">
         <v>3400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4900</v>
-      </c>
-      <c r="S22" s="3">
-        <v>5100</v>
       </c>
       <c r="T22" s="3">
         <v>5100</v>
       </c>
       <c r="U22" s="3">
+        <v>5100</v>
+      </c>
+      <c r="V22" s="3">
         <v>3600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>10900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>7200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>14200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>17500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>21700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>23700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>20600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>20500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>9500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>11100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>9300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>14600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>14800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-8400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-1000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>900</v>
-      </c>
-      <c r="N24" s="3">
-        <v>4600</v>
       </c>
       <c r="O24" s="3">
         <v>4600</v>
       </c>
       <c r="P24" s="3">
+        <v>4600</v>
+      </c>
+      <c r="Q24" s="3">
         <v>1800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>19900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-3700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>9600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>9200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>15300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>16600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>18600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>19700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>15900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-10600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>12500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>11700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-4700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>9600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>9200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>15300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>16600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>18600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>19700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>15900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-10600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>12500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>11700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-4700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2031,26 +2092,26 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>1500</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>1000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-18600</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>17000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>9600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>9200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>15300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>16600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>18600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>19700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>15900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>8500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-29200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>12500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>11700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-4700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>9600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>9200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>15300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>16600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>18600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>19700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>15900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>8500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-29200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>12500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>11700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-4700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>105300</v>
+      </c>
+      <c r="E41" s="3">
         <v>88700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>202100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>187600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>186600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>152200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>114500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>84000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>72000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>55700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>71100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>58100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>57700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>57100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>63000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>64600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>69500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>64600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>77600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>51500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>45700</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,463 +2794,487 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>125500</v>
+      </c>
+      <c r="E43" s="3">
         <v>123200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>105500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>94200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>92500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>96500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>123700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>125400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>130000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>135500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>129200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>123400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>132100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>129800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>127800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>123500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>126400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>119700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>111600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>74900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>80400</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>147900</v>
+      </c>
+      <c r="E44" s="3">
         <v>138700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>111500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>113400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>112100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>124600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>127400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>135400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>142400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>151000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>146300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>149700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>158300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>155700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>152900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>144700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>139300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>135300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>130600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>109100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>116200</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E45" s="3">
         <v>31700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>22800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>18900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>18100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>19700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>17200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>16900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>16700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>15900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>16100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>16600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>17000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>16800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>16600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>17800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>16800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>19600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>21100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>16300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>407600</v>
+      </c>
+      <c r="E46" s="3">
         <v>382200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>441800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>414100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>409300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>392900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>382700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>361700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>361100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>358100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>362600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>347800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>365100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>359400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>360300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>350500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>352000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>339300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>341000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>251800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>256500</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E47" s="3">
         <v>13400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>11000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>10900</v>
-      </c>
-      <c r="G47" s="3">
-        <v>11200</v>
       </c>
       <c r="H47" s="3">
         <v>11200</v>
       </c>
       <c r="I47" s="3">
+        <v>11200</v>
+      </c>
+      <c r="J47" s="3">
         <v>7300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>7400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7600</v>
-      </c>
-      <c r="M47" s="3">
-        <v>7000</v>
       </c>
       <c r="N47" s="3">
         <v>7000</v>
       </c>
       <c r="O47" s="3">
+        <v>7000</v>
+      </c>
+      <c r="P47" s="3">
         <v>7200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>7600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>7700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>7600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>8100</v>
-      </c>
-      <c r="T47" s="3">
-        <v>7700</v>
       </c>
       <c r="U47" s="3">
         <v>7700</v>
       </c>
       <c r="V47" s="3">
+        <v>7700</v>
+      </c>
+      <c r="W47" s="3">
         <v>8100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>128600</v>
+      </c>
+      <c r="E48" s="3">
         <v>133400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>108900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>108600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>109900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>113700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>79500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>81100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>82700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>85100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>87300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>88700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>102300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>104500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>113100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>111800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>113100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>112700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>113000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>99200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1008000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1023800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>544500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>560700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>550300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>540000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>537600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>546000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>540300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>556800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>555800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>566300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>574000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>580000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>611200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>605000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>603000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>595100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>575500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>285500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>289700</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E52" s="3">
         <v>27900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>44100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>53000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>51200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>44700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>86100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>83700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>79400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>82900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>48900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>52800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>55400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>56100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>50200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>56200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>69600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>71600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>76700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>81000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>81900</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1586000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1580600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1150400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1147400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1131900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1102600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1093300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1079900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1071400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1090500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1061600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1062500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1104000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1107600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1142400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1131100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1145700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1126400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1113800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>725600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>739700</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,73 +3664,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>71500</v>
+      </c>
+      <c r="E57" s="3">
         <v>71600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>68600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>49600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>37700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>38900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>57300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>46300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>49000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>40200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>47000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>39700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>41400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>43400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>47000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>42900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>42000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>40500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>41000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>28200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3608,22 +3742,22 @@
         <v>60500</v>
       </c>
       <c r="E58" s="3">
-        <v>4500</v>
+        <v>60500</v>
       </c>
       <c r="F58" s="3">
         <v>4500</v>
       </c>
       <c r="G58" s="3">
-        <v>29500</v>
+        <v>4500</v>
       </c>
       <c r="H58" s="3">
         <v>29500</v>
       </c>
       <c r="I58" s="3">
+        <v>29500</v>
+      </c>
+      <c r="J58" s="3">
         <v>4500</v>
-      </c>
-      <c r="J58" s="3">
-        <v>65000</v>
       </c>
       <c r="K58" s="3">
         <v>65000</v>
@@ -3635,7 +3769,7 @@
         <v>65000</v>
       </c>
       <c r="N58" s="3">
-        <v>60000</v>
+        <v>65000</v>
       </c>
       <c r="O58" s="3">
         <v>60000</v>
@@ -3644,288 +3778,303 @@
         <v>60000</v>
       </c>
       <c r="Q58" s="3">
-        <v>60100</v>
+        <v>60000</v>
       </c>
       <c r="R58" s="3">
         <v>60100</v>
       </c>
       <c r="S58" s="3">
+        <v>60100</v>
+      </c>
+      <c r="T58" s="3">
         <v>49700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>49800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>52600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>13100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>104900</v>
+      </c>
+      <c r="E59" s="3">
         <v>113100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>110800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>90100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>88700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>91900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>93600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>94200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>95100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>99800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>99300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>95500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>95600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>92300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>100000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>90900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>88100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>85300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>97400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>51200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>236900</v>
+      </c>
+      <c r="E60" s="3">
         <v>245200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>183900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>144100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>155900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>160300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>155300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>205500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>209100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>205000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>211300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>195300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>197000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>195800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>207000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>193900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>179800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>175600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>191000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>92500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>123100</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>392700</v>
+      </c>
+      <c r="E61" s="3">
         <v>398800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>244500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>245100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>245700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>246300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>246900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>186900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>206400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>225800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>235300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>254800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>279300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>293800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>303300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>317800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>342500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>358200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>368800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>221100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>196800</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>221200</v>
+      </c>
+      <c r="E62" s="3">
         <v>212200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>191900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>260900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>250400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>229400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>227500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>203100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>192100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>207300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>183800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>192000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>203400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>208400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>224000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>235400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>236600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>228600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>212800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>119700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>121300</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>850800</v>
+      </c>
+      <c r="E66" s="3">
         <v>856200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>620300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>650100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>652000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>636000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>629700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>595500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>607600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>638200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>630400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>642100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>679700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>698000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>734200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>747100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>758900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>762400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>772500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>433300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>441200</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>300000</v>
+      </c>
+      <c r="E72" s="3">
         <v>286500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>293800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>287100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>281900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>287500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>290400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>284000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>270200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>255000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>236500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>219300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>221200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>206500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>197900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>191500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>203000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>191400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>179700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>186300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>186600</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>735200</v>
+      </c>
+      <c r="E76" s="3">
         <v>724500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>530100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>497300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>480000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>466600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>463600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>484400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>463800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>452300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>431200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>420400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>424300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>409600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>408200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>384000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>386800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>364000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>341400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>292300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>9600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>9200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>15300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>16600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>18600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>19700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>15900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>8500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-29200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>12500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>11700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-4700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5028,13 +5227,13 @@
         <v>10500</v>
       </c>
       <c r="E83" s="3">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="F83" s="3">
         <v>7000</v>
       </c>
       <c r="G83" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="H83" s="3">
         <v>7100</v>
@@ -5043,49 +5242,52 @@
         <v>7100</v>
       </c>
       <c r="J83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K83" s="3">
         <v>7200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7400</v>
-      </c>
-      <c r="M83" s="3">
-        <v>7900</v>
       </c>
       <c r="N83" s="3">
         <v>7900</v>
       </c>
       <c r="O83" s="3">
+        <v>7900</v>
+      </c>
+      <c r="P83" s="3">
         <v>8000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>8800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>9300</v>
-      </c>
-      <c r="R83" s="3">
-        <v>9100</v>
       </c>
       <c r="S83" s="3">
         <v>9100</v>
       </c>
       <c r="T83" s="3">
+        <v>9100</v>
+      </c>
+      <c r="U83" s="3">
         <v>8700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>7500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>5800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>26900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>25000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>37400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>9500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>36500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>32400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>40000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>25700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>26200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>19500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>8100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>18400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>16500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>20300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>14400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>11900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>22900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-480400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>5400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>4300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-16600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-215900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-8100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,13 +6017,14 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1400</v>
+        <v>-1700</v>
       </c>
       <c r="E96" s="3">
         <v>-1400</v>
@@ -5817,7 +6051,7 @@
         <v>-1400</v>
       </c>
       <c r="M96" s="3">
-        <v>-1200</v>
+        <v>-1400</v>
       </c>
       <c r="N96" s="3">
         <v>-1200</v>
@@ -5829,7 +6063,7 @@
         <v>-1200</v>
       </c>
       <c r="Q96" s="3">
-        <v>-900</v>
+        <v>-1200</v>
       </c>
       <c r="R96" s="3">
         <v>-900</v>
@@ -5844,13 +6078,16 @@
         <v>-900</v>
       </c>
       <c r="V96" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="W96" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E100" s="3">
         <v>373800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-26200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>21700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-20800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-18600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-10900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-16000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-27500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-16200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-16400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-15500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-12600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-15000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>226600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-6400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-12200</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>4000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>4200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>3400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-113500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>14500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>34300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>37800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>30400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>12000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>16300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-15400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>13000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-4900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-13000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>26100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>5800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>CMCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>216100</v>
+      </c>
+      <c r="E8" s="3">
         <v>223600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>213500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>186200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>166500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>157800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>139100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>189500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>199400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>207600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>212700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>216700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>217400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>217100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>225000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>214100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>208700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>212800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>203700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>183700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>152500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>151900</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>141000</v>
+      </c>
+      <c r="E9" s="3">
         <v>142500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>135900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>122100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>111200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>101800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>94300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>123300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>131500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>134100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>137100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>140700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>144000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>141200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>145300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>139500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>279700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>282700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>269200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>133400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>107700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>75100</v>
+      </c>
+      <c r="E10" s="3">
         <v>81100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>77600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>64100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>55300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>56000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>44800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>66200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>67900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>73500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>75600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>76000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>73400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>75900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>79700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>74600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-71000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-69900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-65500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>50300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>44800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,67 +1003,68 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E12" s="3">
         <v>3800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3100</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>3700</v>
       </c>
       <c r="R12" s="3">
         <v>3700</v>
       </c>
       <c r="S12" s="3">
+        <v>3700</v>
+      </c>
+      <c r="T12" s="3">
         <v>3300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>3700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>2900</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>8</v>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,20 +1143,23 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>27000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -1160,23 +1179,23 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-1000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>15600</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>11100</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
@@ -1187,16 +1206,19 @@
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>2400</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1204,22 +1226,22 @@
         <v>6300</v>
       </c>
       <c r="E15" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F15" s="3">
         <v>6100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>3100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3100</v>
-      </c>
-      <c r="J15" s="3">
-        <v>3200</v>
       </c>
       <c r="K15" s="3">
         <v>3200</v>
@@ -1228,43 +1250,46 @@
         <v>3200</v>
       </c>
       <c r="M15" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N15" s="3">
         <v>3300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4000</v>
-      </c>
-      <c r="S15" s="3">
-        <v>3900</v>
       </c>
       <c r="T15" s="3">
         <v>3900</v>
       </c>
       <c r="U15" s="3">
+        <v>3900</v>
+      </c>
+      <c r="V15" s="3">
         <v>3700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>2800</v>
-      </c>
-      <c r="W15" s="3">
-        <v>1800</v>
       </c>
       <c r="X15" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200800</v>
+      </c>
+      <c r="E17" s="3">
         <v>200000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>217500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>172000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>156100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>142000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>137300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>172800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>178500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>182400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>185700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>192300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>210800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>192300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>211500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>197800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>195000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>193600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>184100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>188200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>147200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>139300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E18" s="3">
         <v>23600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>14200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>10400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>15800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>16700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>20900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>25200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>27000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>24400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>24800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>13500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>16300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>13700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>19200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>19600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-4500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>5300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1480,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-17000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E21" s="3">
         <v>34400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>6500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>20800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>17200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>6000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>24500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>28200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>32800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>35000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>32500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>14600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>32800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>22900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>25000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>23300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>28700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>28600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>9600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E22" s="3">
         <v>4600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2900</v>
-      </c>
-      <c r="G22" s="3">
-        <v>3000</v>
       </c>
       <c r="H22" s="3">
         <v>3000</v>
       </c>
       <c r="I22" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="J22" s="3">
         <v>3200</v>
       </c>
       <c r="K22" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L22" s="3">
         <v>3400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4900</v>
-      </c>
-      <c r="T22" s="3">
-        <v>5100</v>
       </c>
       <c r="U22" s="3">
         <v>5100</v>
       </c>
       <c r="V22" s="3">
+        <v>5100</v>
+      </c>
+      <c r="W22" s="3">
         <v>3600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>2300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E23" s="3">
         <v>19300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-9800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>10900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>7200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>14200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>17500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>21700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>23700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>20600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>20500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>9500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>11100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>9300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>14600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>14800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-8400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E24" s="3">
         <v>4100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>900</v>
-      </c>
-      <c r="O24" s="3">
-        <v>4600</v>
       </c>
       <c r="P24" s="3">
         <v>4600</v>
       </c>
       <c r="Q24" s="3">
+        <v>4600</v>
+      </c>
+      <c r="R24" s="3">
         <v>1800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>19900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-3700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E26" s="3">
         <v>15200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>9600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>9200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>15300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>16600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>18600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>19700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>15900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-10600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>12500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>11700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-4700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E27" s="3">
         <v>15200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>9200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>15300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>16600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>18600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>19700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>15900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>7400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-10600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>12500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>11700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-4700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2095,26 +2155,26 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>1500</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>1000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-18600</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>17000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E33" s="3">
         <v>15200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>9200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>15300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>16600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>18600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>19700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>15900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>7700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>8500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-29200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>12500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>11700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-4700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E35" s="3">
         <v>15200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>9200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>15300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>16600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>18600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>19700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>15900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>7700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>8500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-29200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>12500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>11700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-4700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>106700</v>
+      </c>
+      <c r="E41" s="3">
         <v>105300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>88700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>202100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>187600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>186600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>152200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>114500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>84000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>72000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>55700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>71100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>58100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>57700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>57100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>63000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>64600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>69500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>64600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>77600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>51500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>45700</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,484 +2886,508 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>125900</v>
+      </c>
+      <c r="E43" s="3">
         <v>125500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>123200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>105500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>94200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>92500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>96500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>123700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>125400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>130000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>135500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>129200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>123400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>132100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>129800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>127800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>123500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>126400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>119700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>111600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>74900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>80400</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>175100</v>
+      </c>
+      <c r="E44" s="3">
         <v>147900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>138700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>111500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>113400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>112100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>124600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>127400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>135400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>142400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>151000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>146300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>149700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>158300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>155700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>152900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>144700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>139300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>135300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>130600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>109100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>116200</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E45" s="3">
         <v>28900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>31700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>22800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>18900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>18100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>17200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>16900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>16700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>15900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>16100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>16600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>17000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>16800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>16600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>17800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>16800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>19600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>21100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>16300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>441100</v>
+      </c>
+      <c r="E46" s="3">
         <v>407600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>382200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>441800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>414100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>409300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>392900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>382700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>361700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>361100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>358100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>362600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>347800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>365100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>359400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>360300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>350500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>352000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>339300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>341000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>251800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>256500</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E47" s="3">
         <v>13500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>13400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>11000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>10900</v>
-      </c>
-      <c r="H47" s="3">
-        <v>11200</v>
       </c>
       <c r="I47" s="3">
         <v>11200</v>
       </c>
       <c r="J47" s="3">
+        <v>11200</v>
+      </c>
+      <c r="K47" s="3">
         <v>7300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7600</v>
-      </c>
-      <c r="N47" s="3">
-        <v>7000</v>
       </c>
       <c r="O47" s="3">
         <v>7000</v>
       </c>
       <c r="P47" s="3">
+        <v>7000</v>
+      </c>
+      <c r="Q47" s="3">
         <v>7200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>7600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>7700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>7600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>8100</v>
-      </c>
-      <c r="U47" s="3">
-        <v>7700</v>
       </c>
       <c r="V47" s="3">
         <v>7700</v>
       </c>
       <c r="W47" s="3">
+        <v>7700</v>
+      </c>
+      <c r="X47" s="3">
         <v>8100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>129400</v>
+      </c>
+      <c r="E48" s="3">
         <v>128600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>133400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>108900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>108600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>109900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>113700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>79500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>81100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>82700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>85100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>87300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>88700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>102300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>104500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>113100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>111800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>113100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>112700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>113000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>99200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1057600</v>
+      </c>
+      <c r="E49" s="3">
         <v>1008000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1023800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>544500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>560700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>550300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>540000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>537600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>546000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>540300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>556800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>555800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>566300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>574000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>580000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>611200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>605000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>603000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>595100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>575500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>285500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>289700</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E52" s="3">
         <v>28300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>27900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>44100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>53000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>51200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>44700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>86100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>83700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>79400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>82900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>48900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>52800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>55400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>56100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>50200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>56200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>69600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>71600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>76700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>81000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>81900</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1671500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1586000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1580600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1150400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1147400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1131900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1102600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1093300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1079900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1071400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1090500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1061600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1062500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1104000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1107600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1142400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1131100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1145700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1126400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1113800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>725600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>739700</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,102 +3794,106 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>74100</v>
+      </c>
+      <c r="E57" s="3">
         <v>71500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>71600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>68600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>49600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>37700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>38900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>57300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>46300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>49000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>40200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>47000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>39700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>41400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>43400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>47000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>42900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>42000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>40500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>41000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>28200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>60500</v>
+        <v>40500</v>
       </c>
       <c r="E58" s="3">
         <v>60500</v>
       </c>
       <c r="F58" s="3">
-        <v>4500</v>
+        <v>60500</v>
       </c>
       <c r="G58" s="3">
         <v>4500</v>
       </c>
       <c r="H58" s="3">
-        <v>29500</v>
+        <v>4500</v>
       </c>
       <c r="I58" s="3">
         <v>29500</v>
       </c>
       <c r="J58" s="3">
+        <v>29500</v>
+      </c>
+      <c r="K58" s="3">
         <v>4500</v>
-      </c>
-      <c r="K58" s="3">
-        <v>65000</v>
       </c>
       <c r="L58" s="3">
         <v>65000</v>
@@ -3772,7 +3905,7 @@
         <v>65000</v>
       </c>
       <c r="O58" s="3">
-        <v>60000</v>
+        <v>65000</v>
       </c>
       <c r="P58" s="3">
         <v>60000</v>
@@ -3781,300 +3914,315 @@
         <v>60000</v>
       </c>
       <c r="R58" s="3">
-        <v>60100</v>
+        <v>60000</v>
       </c>
       <c r="S58" s="3">
         <v>60100</v>
       </c>
       <c r="T58" s="3">
+        <v>60100</v>
+      </c>
+      <c r="U58" s="3">
         <v>49700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>49800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>52600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>13100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>116400</v>
+      </c>
+      <c r="E59" s="3">
         <v>104900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>113100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>110800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>90100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>88700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>91900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>93600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>94200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>95100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>99800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>99300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>95500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>95600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>92300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>100000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>90900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>88100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>85300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>97400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>51200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>231000</v>
+      </c>
+      <c r="E60" s="3">
         <v>236900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>245200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>183900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>144100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>155900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>160300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>155300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>205500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>209100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>205000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>211300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>195300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>197000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>195800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>207000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>193900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>179800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>175600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>191000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>92500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>123100</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>480600</v>
+      </c>
+      <c r="E61" s="3">
         <v>392700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>398800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>244500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>245100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>245700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>246300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>246900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>186900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>206400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>225800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>235300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>254800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>279300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>293800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>303300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>317800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>342500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>358200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>368800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>221100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>196800</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>214200</v>
+      </c>
+      <c r="E62" s="3">
         <v>221200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>212200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>191900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>260900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>250400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>229400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>227500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>203100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>192100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>207300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>183800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>192000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>203400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>208400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>224000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>235400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>236600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>228600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>212800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>119700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>121300</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>925800</v>
+      </c>
+      <c r="E66" s="3">
         <v>850800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>856200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>620300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>650100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>652000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>636000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>629700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>595500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>607600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>638200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>630400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>642100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>679700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>698000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>734200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>747100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>758900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>762400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>772500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>433300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>441200</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>308200</v>
+      </c>
+      <c r="E72" s="3">
         <v>300000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>286500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>293800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>287100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>281900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>287500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>290400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>284000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>270200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>255000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>236500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>219300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>221200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>206500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>197900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>191500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>203000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>191400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>179700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>186300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>186600</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>745600</v>
+      </c>
+      <c r="E76" s="3">
         <v>735200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>724500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>530100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>497300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>480000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>466600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>463600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>484400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>463800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>452300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>431200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>420400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>424300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>409600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>408200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>384000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>386800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>364000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>341400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>292300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E81" s="3">
         <v>15200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>9200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>15300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>16600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>18600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>19700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>15900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>7700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>8500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-29200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>12500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>11700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-4700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,25 +5415,26 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>10500</v>
+        <v>10300</v>
       </c>
       <c r="E83" s="3">
         <v>10500</v>
       </c>
       <c r="F83" s="3">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="G83" s="3">
         <v>7000</v>
       </c>
       <c r="H83" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="I83" s="3">
         <v>7100</v>
@@ -5245,49 +5443,52 @@
         <v>7100</v>
       </c>
       <c r="K83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="L83" s="3">
         <v>7200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7400</v>
-      </c>
-      <c r="N83" s="3">
-        <v>7900</v>
       </c>
       <c r="O83" s="3">
         <v>7900</v>
       </c>
       <c r="P83" s="3">
+        <v>7900</v>
+      </c>
+      <c r="Q83" s="3">
         <v>8000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>8800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>9300</v>
-      </c>
-      <c r="S83" s="3">
-        <v>9100</v>
       </c>
       <c r="T83" s="3">
         <v>9100</v>
       </c>
       <c r="U83" s="3">
+        <v>9100</v>
+      </c>
+      <c r="V83" s="3">
         <v>8700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>7500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>5800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E89" s="3">
         <v>25300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>26900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>25000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>37400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>9500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>36500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>32400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>40000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>25700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>26200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>19500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>8100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>18400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>16500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>20300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>14400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>11900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>22900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-70100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-480400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>5400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>4300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>2600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-16600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-215900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-8100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6027,7 +6260,7 @@
         <v>-1700</v>
       </c>
       <c r="E96" s="3">
-        <v>-1400</v>
+        <v>-1700</v>
       </c>
       <c r="F96" s="3">
         <v>-1400</v>
@@ -6054,7 +6287,7 @@
         <v>-1400</v>
       </c>
       <c r="N96" s="3">
-        <v>-1200</v>
+        <v>-1400</v>
       </c>
       <c r="O96" s="3">
         <v>-1200</v>
@@ -6066,7 +6299,7 @@
         <v>-1200</v>
       </c>
       <c r="R96" s="3">
-        <v>-900</v>
+        <v>-1200</v>
       </c>
       <c r="S96" s="3">
         <v>-900</v>
@@ -6081,13 +6314,16 @@
         <v>-900</v>
       </c>
       <c r="W96" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="X96" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>66400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-6900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>373800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-26200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>21700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-20800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-18600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-10900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-16000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-27500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-16200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-8100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-16400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-15500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-12600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-15000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>226600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-6400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-12200</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>4000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-3900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>4200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>3400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-2600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E102" s="3">
         <v>16700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-113500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>14500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>34300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>37800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>30400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>12000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>16300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-15400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>13000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-4900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-13000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>26100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>5800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>CMCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,346 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>220300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>253400</v>
+      </c>
+      <c r="F8" s="3">
         <v>216100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>223600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>213500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>186200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>166500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>157800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>139100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>189500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>199400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>207600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>212700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>216700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>217400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>217100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>225000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>214100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>208700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>212800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>203700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>183700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>152500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>151900</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>137800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>167900</v>
+      </c>
+      <c r="F9" s="3">
         <v>141000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>142500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>135900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>122100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>111200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>101800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>94300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>123300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>131500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>134100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>137100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>140700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>144000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>141200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>145300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>139500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>279700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>282700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>269200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>133400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>107700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>82500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>85500</v>
+      </c>
+      <c r="F10" s="3">
         <v>75100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>81100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>77600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>64100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>55300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>56000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>44800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>66200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>67900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>73500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>75600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>76000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>73400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>75900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>79700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>74600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>-71000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>-69900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>-65500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>50300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>44800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,79 +1030,87 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F12" s="3">
         <v>3900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>3800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>3600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>3700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>3000</v>
-      </c>
-      <c r="I12" s="3">
-        <v>2900</v>
-      </c>
-      <c r="J12" s="3">
-        <v>2800</v>
       </c>
       <c r="K12" s="3">
         <v>2900</v>
       </c>
       <c r="L12" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M12" s="3">
+        <v>2900</v>
+      </c>
+      <c r="N12" s="3">
         <v>2600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>3000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>2800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>3400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>3300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>3100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>3700</v>
-      </c>
-      <c r="S12" s="3">
-        <v>3700</v>
-      </c>
-      <c r="T12" s="3">
-        <v>3300</v>
       </c>
       <c r="U12" s="3">
         <v>3700</v>
       </c>
       <c r="V12" s="3">
+        <v>3300</v>
+      </c>
+      <c r="W12" s="3">
+        <v>3700</v>
+      </c>
+      <c r="X12" s="3">
         <v>2900</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,26 +1180,32 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>27000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
@@ -1182,26 +1222,26 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>-1000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>15600</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>11100</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
@@ -1209,33 +1249,39 @@
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>2400</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E15" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F15" s="3">
         <v>6300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>6300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>6100</v>
-      </c>
-      <c r="G15" s="3">
-        <v>3200</v>
-      </c>
-      <c r="H15" s="3">
-        <v>3100</v>
       </c>
       <c r="I15" s="3">
         <v>3200</v>
@@ -1247,49 +1293,55 @@
         <v>3200</v>
       </c>
       <c r="L15" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="M15" s="3">
         <v>3200</v>
       </c>
       <c r="N15" s="3">
+        <v>3200</v>
+      </c>
+      <c r="O15" s="3">
+        <v>3200</v>
+      </c>
+      <c r="P15" s="3">
         <v>3300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>3500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>3700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>3800</v>
-      </c>
-      <c r="R15" s="3">
-        <v>3900</v>
-      </c>
-      <c r="S15" s="3">
-        <v>4000</v>
       </c>
       <c r="T15" s="3">
         <v>3900</v>
       </c>
       <c r="U15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="V15" s="3">
         <v>3900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
+        <v>3900</v>
+      </c>
+      <c r="X15" s="3">
         <v>3700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>2800</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>1800</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>197500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>229300</v>
+      </c>
+      <c r="F17" s="3">
         <v>200800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>200000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>217500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>172000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>156100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>142000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>137300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>172800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>178500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>182400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>185700</v>
-      </c>
-      <c r="O17" s="3">
-        <v>192300</v>
-      </c>
-      <c r="P17" s="3">
-        <v>210800</v>
       </c>
       <c r="Q17" s="3">
         <v>192300</v>
       </c>
       <c r="R17" s="3">
+        <v>210800</v>
+      </c>
+      <c r="S17" s="3">
+        <v>192300</v>
+      </c>
+      <c r="T17" s="3">
         <v>211500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>197800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>195000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>193600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>184100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>188200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>147200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>139300</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>24100</v>
+      </c>
+      <c r="F18" s="3">
         <v>15300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>23600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-4000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>14200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>10400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>15800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>16700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>20900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>25200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>27000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>24400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>6600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>24800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>13500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>16300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>13700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>19200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>19600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-4500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>5300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,363 +1547,395 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-17000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-2600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>34000</v>
+      </c>
+      <c r="F21" s="3">
         <v>25600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>34400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>6500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>20800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>17200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>6000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>6300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>24500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>28200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>32800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>35000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>32500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>14600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>32800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>22900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>25000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>23300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>28700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>28600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>2600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>9600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F22" s="3">
         <v>4400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>4600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>5800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>2900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>3000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>3000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>3200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>3200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>3400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>3800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>3900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>4000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>4300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>4200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>4600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>4700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>4900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>5100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>5100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>3600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>2300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F23" s="3">
         <v>11000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>19300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-9800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>10900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>7200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-4100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-3900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>14200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>17500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>21700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>23700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>20600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>2300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>20500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>9500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>11100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>9300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>14600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>14800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-8400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>1500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F24" s="3">
         <v>1100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>4100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-2500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>4900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>2200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>5100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>5200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>4600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>4600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>1800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>3600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>19900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>2100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>3100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-3700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>1000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F26" s="3">
         <v>9900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>15200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-7300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>9600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>6600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-4100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-3000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>9200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>15300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>16600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>18600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>19700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>15900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>7700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>7400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-10600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>12500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>11700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-4700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F27" s="3">
         <v>9900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>15200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-7300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>9600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>6600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-4100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-3000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>9200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>15300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>16600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>18600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>19700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>15900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>7700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>7400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-10600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>12500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>11700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-4700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,31 +2236,37 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2158,29 +2280,29 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>1500</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="U29" s="3">
         <v>1000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>-18600</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2467,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="E32" s="3">
+        <v>800</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>17000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>2600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>1500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F33" s="3">
         <v>9900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>15200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-7300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>9600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>6600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-4100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-3000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>9200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>15300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>16600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>18600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>19700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>15900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>7700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>8500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-29200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>12500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>11700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-4700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F35" s="3">
         <v>9900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>15200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-7300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>9600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>6600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-4100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-3000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>9200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>15300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>16600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>18600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>19700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>15900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>7700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>8500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-29200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>12500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>11700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-4700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2919,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>85700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>115400</v>
+      </c>
+      <c r="F41" s="3">
         <v>106700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>105300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>88700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>202100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>187600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>186600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>152200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>114500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>84000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>72000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>55700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>71100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>58100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>57700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>57100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>63000</v>
-      </c>
-      <c r="T41" s="3">
-        <v>64600</v>
-      </c>
-      <c r="U41" s="3">
-        <v>69500</v>
       </c>
       <c r="V41" s="3">
         <v>64600</v>
       </c>
       <c r="W41" s="3">
+        <v>69500</v>
+      </c>
+      <c r="X41" s="3">
+        <v>64600</v>
+      </c>
+      <c r="Y41" s="3">
         <v>77600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>51500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>45700</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,505 +3069,553 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>133000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>147500</v>
+      </c>
+      <c r="F43" s="3">
         <v>125900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>125500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>123200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>105500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>94200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>92500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>96500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>123700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>125400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>130000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>135500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>129200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>123400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>132100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>129800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>127800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>123500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>126400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>119700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>111600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>74900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>80400</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>189300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>172100</v>
+      </c>
+      <c r="F44" s="3">
         <v>175100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>147900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>138700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>111500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>113400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>112100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>124600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>127400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>135400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>142400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>151000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>146300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>149700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>158300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>155700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>152900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>144700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>139300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>135300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>130600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>109100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>116200</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>31500</v>
+      </c>
+      <c r="F45" s="3">
         <v>33400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>28900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>31700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>22800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>18900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>18100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>19700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>17200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>16900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>16700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>15900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>16100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>16600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>17000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>16800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>16600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>17800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>16800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>19600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>21100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>16300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>442600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>466600</v>
+      </c>
+      <c r="F46" s="3">
         <v>441100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>407600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>382200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>441800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>414100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>409300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>392900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>382700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>361700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>361100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>358100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>362600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>347800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>365100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>359400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>360300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>350500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>352000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>339300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>341000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>251800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>256500</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F47" s="3">
         <v>13900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>13500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>13400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>11000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>10900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>11200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>11200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>7300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>7400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>7900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>7600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>7000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>7000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>7200</v>
-      </c>
-      <c r="R47" s="3">
-        <v>7600</v>
-      </c>
-      <c r="S47" s="3">
-        <v>7700</v>
       </c>
       <c r="T47" s="3">
         <v>7600</v>
       </c>
       <c r="U47" s="3">
+        <v>7700</v>
+      </c>
+      <c r="V47" s="3">
+        <v>7600</v>
+      </c>
+      <c r="W47" s="3">
         <v>8100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>7700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>7700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>8100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>123900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>128700</v>
+      </c>
+      <c r="F48" s="3">
         <v>129400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>128600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>133400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>108900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>108600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>109900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>113700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>79500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>81100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>82700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>85100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>87300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>88700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>102300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>104500</v>
-      </c>
-      <c r="S48" s="3">
-        <v>113100</v>
-      </c>
-      <c r="T48" s="3">
-        <v>111800</v>
       </c>
       <c r="U48" s="3">
         <v>113100</v>
       </c>
       <c r="V48" s="3">
+        <v>111800</v>
+      </c>
+      <c r="W48" s="3">
+        <v>113100</v>
+      </c>
+      <c r="X48" s="3">
         <v>112700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>113000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>99200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1019400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1039600</v>
+      </c>
+      <c r="F49" s="3">
         <v>1057600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1008000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1023800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>544500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>560700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>550300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>540000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>537600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>546000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>540300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>556800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>555800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>566300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>574000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>580000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>611200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>605000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>603000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>595100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>575500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>285500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>289700</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3762,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>36200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>37700</v>
+      </c>
+      <c r="F52" s="3">
         <v>29400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>28300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>27900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>44100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>53000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>51200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>44700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>86100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>83700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>79400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>82900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>48900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>52800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>55400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>56100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>50200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>56200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>69600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>71600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>76700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>81000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>81900</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1634700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1685700</v>
+      </c>
+      <c r="F54" s="3">
         <v>1671500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1586000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1580600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1150400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1147400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1131900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1102600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1093300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1079900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1071400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1090500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1061600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1062500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1104000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1107600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1142400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1131100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1145700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1126400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1113800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>725600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>739700</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,111 +4055,119 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>73900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>90900</v>
+      </c>
+      <c r="F57" s="3">
         <v>74100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>71500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>71600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>68600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>49600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>37700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>38900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>57300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>46300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>49000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>40200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>47000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>39700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>41400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>43400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>47000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>42900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>42000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>40500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>41000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>28200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>40600</v>
+      </c>
+      <c r="F58" s="3">
         <v>40500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>60500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>60500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>4500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>4500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>29500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>29500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>4500</v>
-      </c>
-      <c r="L58" s="3">
-        <v>65000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>65000</v>
       </c>
       <c r="N58" s="3">
         <v>65000</v>
@@ -3908,321 +4176,351 @@
         <v>65000</v>
       </c>
       <c r="P58" s="3">
-        <v>60000</v>
+        <v>65000</v>
       </c>
       <c r="Q58" s="3">
-        <v>60000</v>
+        <v>65000</v>
       </c>
       <c r="R58" s="3">
         <v>60000</v>
       </c>
       <c r="S58" s="3">
+        <v>60000</v>
+      </c>
+      <c r="T58" s="3">
+        <v>60000</v>
+      </c>
+      <c r="U58" s="3">
         <v>60100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>60100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>49700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>49800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>52600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>13100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>104800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>118200</v>
+      </c>
+      <c r="F59" s="3">
         <v>116400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>104900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>113100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>110800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>90100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>88700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>91900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>93600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>94200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>95100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>99800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>99300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>95500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>95600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>92300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>100000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>90900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>88100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>85300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>97400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>51200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>219300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>249600</v>
+      </c>
+      <c r="F60" s="3">
         <v>231000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>236900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>245200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>183900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>144100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>155900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>160300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>155300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>205500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>209100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>205000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>211300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>195300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>197000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>195800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>207000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>193900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>179800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>175600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>191000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>92500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>123100</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>460800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>470700</v>
+      </c>
+      <c r="F61" s="3">
         <v>480600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>392700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>398800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>244500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>245100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>245700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>246300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>246900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>186900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>206400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>225800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>235300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>254800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>279300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>293800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>303300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>317800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>342500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>358200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>368800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>221100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>196800</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>179500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>192600</v>
+      </c>
+      <c r="F62" s="3">
         <v>214200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>221200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>212200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>191900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>260900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>250400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>229400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>227500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>203100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>192100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>207300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>183800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>192000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>203400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>208400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>224000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>235400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>236600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>228600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>212800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>119700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>121300</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>859500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>912900</v>
+      </c>
+      <c r="F66" s="3">
         <v>925800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>850800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>856200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>620300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>650100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>652000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>636000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>629700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>595500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>607600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>638200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>630400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>642100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>679700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>698000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>734200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>747100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>758900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>762400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>772500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>433300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>441200</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>324700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>316300</v>
+      </c>
+      <c r="F72" s="3">
         <v>308200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>300000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>286500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>293800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>287100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>281900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>287500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>290400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>284000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>270200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>255000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>236500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>219300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>221200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>206500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>197900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>191500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>203000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>191400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>179700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>186300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>186600</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>775200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>772800</v>
+      </c>
+      <c r="F76" s="3">
         <v>745600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>735200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>724500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>530100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>497300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>480000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>466600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>463600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>484400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>463800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>452300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>431200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>420400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>424300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>409600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>408200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>384000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>386800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>364000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>341400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>292300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F81" s="3">
         <v>9900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>15200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-7300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>9600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>6600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-4100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-3000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>9200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>15300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>16600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>18600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>19700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>15900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>7700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>8500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-29200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>12500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>11700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-4700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5812,87 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F83" s="3">
         <v>10300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>10500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>10500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>7000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>7000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>7100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>7100</v>
       </c>
       <c r="K83" s="3">
         <v>7100</v>
       </c>
       <c r="L83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="M83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="N83" s="3">
         <v>7200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>7300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>7400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>7900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>7900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>8000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>8800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>9300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>9100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>9100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>8700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>7500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>5800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>25200</v>
+      </c>
+      <c r="F89" s="3">
         <v>5800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>25300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-7400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>26900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>25000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>37400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>9500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>36500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>32400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>40000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-2200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>25700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>26200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>19500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>8100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>18400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>16500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>20300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>14400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>11900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>22900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6380,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-3100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-3600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-6400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-3100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-2700</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-3000</v>
       </c>
       <c r="N91" s="3">
         <v>-1900</v>
       </c>
       <c r="O91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-5100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-2500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-2300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-5100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-3300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-4200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-1900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-3100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6607,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-70100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-480400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-6400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-2900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>5400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-3000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-3200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-2400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>4300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>2600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-2400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-2100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-5300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-6000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-4300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-16600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-215900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-8100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,22 +6717,24 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1700</v>
+        <v>-2000</v>
       </c>
       <c r="E96" s="3">
         <v>-1700</v>
       </c>
       <c r="F96" s="3">
-        <v>-1400</v>
+        <v>-1700</v>
       </c>
       <c r="G96" s="3">
-        <v>-1400</v>
+        <v>-1700</v>
       </c>
       <c r="H96" s="3">
         <v>-1400</v>
@@ -6290,10 +6758,10 @@
         <v>-1400</v>
       </c>
       <c r="O96" s="3">
-        <v>-1200</v>
+        <v>-1400</v>
       </c>
       <c r="P96" s="3">
-        <v>-1200</v>
+        <v>-1400</v>
       </c>
       <c r="Q96" s="3">
         <v>-1200</v>
@@ -6302,10 +6770,10 @@
         <v>-1200</v>
       </c>
       <c r="S96" s="3">
-        <v>-900</v>
+        <v>-1200</v>
       </c>
       <c r="T96" s="3">
-        <v>-900</v>
+        <v>-1200</v>
       </c>
       <c r="U96" s="3">
         <v>-900</v>
@@ -6317,13 +6785,19 @@
         <v>-900</v>
       </c>
       <c r="X96" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-800</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +7021,241 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="F100" s="3">
         <v>66400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-6900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>373800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-2500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-26200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-3200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>21700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-20800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-18600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-10900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-16000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-27500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-16200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-8100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-16400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-15500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-12600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-15000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>226600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-6400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-12200</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F101" s="3">
         <v>-700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-1400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-3500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>4000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>1100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>1800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-1900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-3900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>1800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>1500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>4200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>3400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F102" s="3">
         <v>1400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>16700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-113500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>14500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>34300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>37800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>30400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>12000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>16300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-15400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>13000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-5900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-1600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-4900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>4800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-13000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>26100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>5800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>2500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMCO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>231700</v>
+      </c>
+      <c r="E8" s="3">
         <v>220300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>253400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>216100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>223600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>213500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>186200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>166500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>157800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>139100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>189500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>199400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>207600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>212700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>216700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>217400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>217100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>225000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>214100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>208700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>212800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>203700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>183700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>152500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>151900</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>145400</v>
+      </c>
+      <c r="E9" s="3">
         <v>137800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>167900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>141000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>142500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>135900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>122100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>111200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>101800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>94300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>123300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>131500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>134100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>137100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>140700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>144000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>141200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>145300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>139500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>279700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>282700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>269200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>133400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>107700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>86300</v>
+      </c>
+      <c r="E10" s="3">
         <v>82500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>85500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>75100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>81100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>77600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>64100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>55300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>56000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>44800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>66200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>67900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>73500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>75600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>76000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>73400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>75900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>79700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>74600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-71000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-69900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>-65500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>50300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>44800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,76 +1045,77 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E12" s="3">
         <v>5100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>3400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>3300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>3100</v>
-      </c>
-      <c r="T12" s="3">
-        <v>3700</v>
       </c>
       <c r="U12" s="3">
         <v>3700</v>
       </c>
       <c r="V12" s="3">
+        <v>3700</v>
+      </c>
+      <c r="W12" s="3">
         <v>3300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>3700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>2900</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z12" s="3" t="s">
         <v>8</v>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,20 +1215,20 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-5800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>27000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -1228,23 +1248,23 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-1000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>15600</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>11100</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
@@ -1255,48 +1275,51 @@
         <v>0</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>2400</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E15" s="3">
         <v>6500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>6600</v>
-      </c>
-      <c r="F15" s="3">
-        <v>6300</v>
       </c>
       <c r="G15" s="3">
         <v>6300</v>
       </c>
       <c r="H15" s="3">
+        <v>6300</v>
+      </c>
+      <c r="I15" s="3">
         <v>6100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3100</v>
-      </c>
-      <c r="M15" s="3">
-        <v>3200</v>
       </c>
       <c r="N15" s="3">
         <v>3200</v>
@@ -1305,43 +1328,46 @@
         <v>3200</v>
       </c>
       <c r="P15" s="3">
+        <v>3200</v>
+      </c>
+      <c r="Q15" s="3">
         <v>3300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>4000</v>
-      </c>
-      <c r="V15" s="3">
-        <v>3900</v>
       </c>
       <c r="W15" s="3">
         <v>3900</v>
       </c>
       <c r="X15" s="3">
+        <v>3900</v>
+      </c>
+      <c r="Y15" s="3">
         <v>3700</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>2800</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>1800</v>
       </c>
       <c r="AA15" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>204400</v>
+      </c>
+      <c r="E17" s="3">
         <v>197500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>229300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>200000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>217500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>172000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>156100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>142000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>137300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>172800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>178500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>182400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>185700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>192300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>210800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>192300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>211500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>197800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>195000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>193600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>184100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>188200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>147200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>139300</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E18" s="3">
         <v>22800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>24100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>15300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>23600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>14200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>10400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>15800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>16700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>20900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>25200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>27000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>24400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>24800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>13500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>16300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>13700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>19200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>19600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-4500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>5300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,393 +1582,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-800</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-17000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>34000</v>
+        <v>36300</v>
       </c>
       <c r="E21" s="3">
         <v>34000</v>
       </c>
       <c r="F21" s="3">
+        <v>34000</v>
+      </c>
+      <c r="G21" s="3">
         <v>25600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>34400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>6500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>20800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>17200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>24500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>28200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>32800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>35000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>32500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>14600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>32800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>22900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>25000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>23300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>28700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>28600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>9600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E22" s="3">
         <v>6200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>5800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2900</v>
-      </c>
-      <c r="J22" s="3">
-        <v>3000</v>
       </c>
       <c r="K22" s="3">
         <v>3000</v>
       </c>
       <c r="L22" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="M22" s="3">
         <v>3200</v>
       </c>
       <c r="N22" s="3">
+        <v>3200</v>
+      </c>
+      <c r="O22" s="3">
         <v>3400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>4700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>4900</v>
-      </c>
-      <c r="W22" s="3">
-        <v>5100</v>
       </c>
       <c r="X22" s="3">
         <v>5100</v>
       </c>
       <c r="Y22" s="3">
+        <v>5100</v>
+      </c>
+      <c r="Z22" s="3">
         <v>3600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>2300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E23" s="3">
         <v>17300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>18000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>11000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>19300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-9800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>10900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>7200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>14200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>17500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>21700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>23700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>20600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>20500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>9500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>11100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>9300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>14600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>14800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-8400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E24" s="3">
         <v>8900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-1000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>900</v>
-      </c>
-      <c r="R24" s="3">
-        <v>4600</v>
       </c>
       <c r="S24" s="3">
         <v>4600</v>
       </c>
       <c r="T24" s="3">
+        <v>4600</v>
+      </c>
+      <c r="U24" s="3">
         <v>1800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>19900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>3100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-3700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E26" s="3">
         <v>8400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>11800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>9900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>15200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>9600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>9200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>15300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>16600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>18600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>19700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>15900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>7700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>7400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-10600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>12500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>11700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-4700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E27" s="3">
         <v>8400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>11800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>15200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>9600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>9200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>15300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>16600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>18600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>19700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>15900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>7700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>7400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-10600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>12500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>11700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-4700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2268,8 +2329,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2286,26 +2347,26 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>1500</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>1000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-18600</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>800</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>17000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E33" s="3">
         <v>8400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>11800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>15200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>9600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>9200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>15300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>16600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>18600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>19700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>15900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>7700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>8500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-29200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>12500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>11700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-4700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E35" s="3">
         <v>8400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>11800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>15200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>9600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>9200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>15300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>16600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>18600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>19700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>15900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>7700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>8500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-29200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>12500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>11700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-4700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>88900</v>
+      </c>
+      <c r="E41" s="3">
         <v>85700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>115400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>106700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>105300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>88700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>202100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>187600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>186600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>152200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>114500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>84000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>72000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>55700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>71100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>58100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>57700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>57100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>63000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>64600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>69500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>64600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>77600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>51500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>45700</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,547 +3165,571 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>140300</v>
+      </c>
+      <c r="E43" s="3">
         <v>133000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>147500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>125900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>125500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>123200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>105500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>94200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>92500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>96500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>123700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>125400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>130000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>135500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>129200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>123400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>132100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>129800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>127800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>123500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>126400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>119700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>111600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>74900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>80400</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>192800</v>
+      </c>
+      <c r="E44" s="3">
         <v>189300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>172100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>175100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>147900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>138700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>111500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>113400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>112100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>124600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>127400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>135400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>142400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>151000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>146300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>149700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>158300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>155700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>152900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>144700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>139300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>135300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>130600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>109100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>116200</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E45" s="3">
         <v>34600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>31500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>33400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>28900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>31700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>22800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>18900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>18100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>19700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>17200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>16900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>16700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>15900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>16100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>16600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>17000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>16800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>16600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>17800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>16800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>19600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>21100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>16300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>459500</v>
+      </c>
+      <c r="E46" s="3">
         <v>442600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>466600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>441100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>407600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>382200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>441800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>414100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>409300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>392900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>382700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>361700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>361100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>358100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>362600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>347800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>365100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>359400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>360300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>350500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>352000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>339300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>341000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>251800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>256500</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E47" s="3">
         <v>12700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>13100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>13900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>13500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>13400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>11000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>10900</v>
-      </c>
-      <c r="K47" s="3">
-        <v>11200</v>
       </c>
       <c r="L47" s="3">
         <v>11200</v>
       </c>
       <c r="M47" s="3">
+        <v>11200</v>
+      </c>
+      <c r="N47" s="3">
         <v>7300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>7900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>7600</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>7000</v>
       </c>
       <c r="R47" s="3">
         <v>7000</v>
       </c>
       <c r="S47" s="3">
+        <v>7000</v>
+      </c>
+      <c r="T47" s="3">
         <v>7200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>7600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>7700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>7600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>8100</v>
-      </c>
-      <c r="X47" s="3">
-        <v>7700</v>
       </c>
       <c r="Y47" s="3">
         <v>7700</v>
       </c>
       <c r="Z47" s="3">
+        <v>7700</v>
+      </c>
+      <c r="AA47" s="3">
         <v>8100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>121100</v>
+      </c>
+      <c r="E48" s="3">
         <v>123900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>128700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>129400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>128600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>133400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>108900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>108600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>109900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>113700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>79500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>81100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>82700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>85100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>87300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>88700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>102300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>104500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>113100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>111800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>113100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>112700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>113000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>99200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>993100</v>
+      </c>
+      <c r="E49" s="3">
         <v>1019400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1039600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1057600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1008000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1023800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>544500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>560700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>550300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>540000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>537600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>546000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>540300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>556800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>555800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>566300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>574000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>580000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>611200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>605000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>603000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>595100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>575500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>285500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>289700</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>43300</v>
+      </c>
+      <c r="E52" s="3">
         <v>36200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>37700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>29400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>28300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>27900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>44100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>53000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>51200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>44700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>86100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>83700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>79400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>82900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>48900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>52800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>55400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>56100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>50200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>56200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>69600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>71600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>76700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>81000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>81900</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1629300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1634700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1685700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1671500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1586000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1580600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1150400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1147400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1131900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1102600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1093300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1079900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1071400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1090500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1061600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1062500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1104000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1107600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1142400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1131100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1145700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1126400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1113800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>725600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>739700</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,85 +4187,89 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>76600</v>
+      </c>
+      <c r="E57" s="3">
         <v>73900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>90900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>74100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>71500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>71600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>68600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>49600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>37700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>38900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>57300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>46300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>49000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>40200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>47000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>39700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>41400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>43400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>47000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>42900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>42000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>40500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>41000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>28200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4146,31 +4280,31 @@
         <v>40600</v>
       </c>
       <c r="F58" s="3">
+        <v>40600</v>
+      </c>
+      <c r="G58" s="3">
         <v>40500</v>
-      </c>
-      <c r="G58" s="3">
-        <v>60500</v>
       </c>
       <c r="H58" s="3">
         <v>60500</v>
       </c>
       <c r="I58" s="3">
-        <v>4500</v>
+        <v>60500</v>
       </c>
       <c r="J58" s="3">
         <v>4500</v>
       </c>
       <c r="K58" s="3">
-        <v>29500</v>
+        <v>4500</v>
       </c>
       <c r="L58" s="3">
         <v>29500</v>
       </c>
       <c r="M58" s="3">
+        <v>29500</v>
+      </c>
+      <c r="N58" s="3">
         <v>4500</v>
-      </c>
-      <c r="N58" s="3">
-        <v>65000</v>
       </c>
       <c r="O58" s="3">
         <v>65000</v>
@@ -4182,7 +4316,7 @@
         <v>65000</v>
       </c>
       <c r="R58" s="3">
-        <v>60000</v>
+        <v>65000</v>
       </c>
       <c r="S58" s="3">
         <v>60000</v>
@@ -4191,28 +4325,31 @@
         <v>60000</v>
       </c>
       <c r="U58" s="3">
-        <v>60100</v>
+        <v>60000</v>
       </c>
       <c r="V58" s="3">
         <v>60100</v>
       </c>
       <c r="W58" s="3">
+        <v>60100</v>
+      </c>
+      <c r="X58" s="3">
         <v>49700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>49800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>52600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>13100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4220,307 +4357,319 @@
         <v>104800</v>
       </c>
       <c r="E59" s="3">
+        <v>104800</v>
+      </c>
+      <c r="F59" s="3">
         <v>118200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>116400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>104900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>113100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>110800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>90100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>88700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>91900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>93600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>94200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>95100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>99800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>99300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>95500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>95600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>92300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>100000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>90900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>88100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>85300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>97400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>51200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>222000</v>
+      </c>
+      <c r="E60" s="3">
         <v>219300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>249600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>231000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>236900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>245200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>183900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>144100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>155900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>160300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>155300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>205500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>209100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>205000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>211300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>195300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>197000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>195800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>207000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>193900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>179800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>175600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>191000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>92500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>123100</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>450800</v>
+      </c>
+      <c r="E61" s="3">
         <v>460800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>470700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>480600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>392700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>398800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>244500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>245100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>245700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>246300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>246900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>186900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>206400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>225800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>235300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>254800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>279300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>293800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>303300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>317800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>342500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>358200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>368800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>221100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>196800</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>172100</v>
+      </c>
+      <c r="E62" s="3">
         <v>179500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>192600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>214200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>221200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>212200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>191900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>260900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>250400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>229400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>227500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>203100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>192100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>207300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>183800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>192000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>203400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>208400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>224000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>235400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>236600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>228600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>212800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>119700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>121300</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>844900</v>
+      </c>
+      <c r="E66" s="3">
         <v>859500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>912900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>925800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>850800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>856200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>620300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>650100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>652000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>636000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>629700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>595500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>607600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>638200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>630400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>642100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>679700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>698000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>734200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>747100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>758900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>762400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>772500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>433300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>441200</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>336800</v>
+      </c>
+      <c r="E72" s="3">
         <v>324700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>316300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>308200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>300000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>286500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>293800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>287100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>281900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>287500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>290400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>284000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>270200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>255000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>236500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>219300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>221200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>206500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>197900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>191500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>203000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>191400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>179700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>186300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>186600</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>784400</v>
+      </c>
+      <c r="E76" s="3">
         <v>775200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>772800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>745600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>735200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>724500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>530100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>497300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>480000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>466600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>463600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>484400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>463800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>452300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>431200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>420400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>424300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>409600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>408200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>384000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>386800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>364000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>341400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>292300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E81" s="3">
         <v>8400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>11800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>15200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>9600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>9200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>15300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>16600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>18600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>19700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>15900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>7700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>8500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-29200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>12500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>11700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-4700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,34 +6012,35 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E83" s="3">
         <v>10500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>10700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>10300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>10500</v>
       </c>
       <c r="H83" s="3">
         <v>10500</v>
       </c>
       <c r="I83" s="3">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="J83" s="3">
         <v>7000</v>
       </c>
       <c r="K83" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="L83" s="3">
         <v>7100</v>
@@ -5850,49 +6049,52 @@
         <v>7100</v>
       </c>
       <c r="N83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="O83" s="3">
         <v>7200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7400</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>7900</v>
       </c>
       <c r="R83" s="3">
         <v>7900</v>
       </c>
       <c r="S83" s="3">
+        <v>7900</v>
+      </c>
+      <c r="T83" s="3">
         <v>8000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>8800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>9300</v>
-      </c>
-      <c r="V83" s="3">
-        <v>9100</v>
       </c>
       <c r="W83" s="3">
         <v>9100</v>
       </c>
       <c r="X83" s="3">
+        <v>9100</v>
+      </c>
+      <c r="Y83" s="3">
         <v>8700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>7500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>5800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-11200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>25200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>25300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>26900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>25000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>37400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>36500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>32400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>40000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>25700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>26200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>19500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>8100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>18400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>16500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>20300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>14400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>11900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>22900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-5100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-70100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-480400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>5400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>4300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>2600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-5300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-6000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-4300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-16600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-215900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-8100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6728,7 +6962,7 @@
         <v>-2000</v>
       </c>
       <c r="E96" s="3">
-        <v>-1700</v>
+        <v>-2000</v>
       </c>
       <c r="F96" s="3">
         <v>-1700</v>
@@ -6737,7 +6971,7 @@
         <v>-1700</v>
       </c>
       <c r="H96" s="3">
-        <v>-1400</v>
+        <v>-1700</v>
       </c>
       <c r="I96" s="3">
         <v>-1400</v>
@@ -6764,7 +6998,7 @@
         <v>-1400</v>
       </c>
       <c r="Q96" s="3">
-        <v>-1200</v>
+        <v>-1400</v>
       </c>
       <c r="R96" s="3">
         <v>-1200</v>
@@ -6776,7 +7010,7 @@
         <v>-1200</v>
       </c>
       <c r="U96" s="3">
-        <v>-900</v>
+        <v>-1200</v>
       </c>
       <c r="V96" s="3">
         <v>-900</v>
@@ -6791,13 +7025,16 @@
         <v>-900</v>
       </c>
       <c r="Z96" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="AA96" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-12900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-12600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>66400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-6900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>373800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-26200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>21700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-20800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-18600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-16000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-27500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-16200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-8100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-16400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-15500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-12600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-15000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>226600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-6400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-12200</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-3900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>4200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>3400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-29700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>8700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>16700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-113500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>14500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>34300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>37800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>30400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>12000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>16300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-15400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>13000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-5900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-4900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>4800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-13000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>26100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>5800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>2500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMCO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,371 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>230400</v>
+      </c>
+      <c r="E8" s="3">
         <v>231700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>220300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>253400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>216100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>223600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>213500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>186200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>166500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>157800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>139100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>189500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>199400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>207600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>212700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>216700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>217400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>217100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>225000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>214100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>208700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>212800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>203700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>183700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>152500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>151900</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>148300</v>
+      </c>
+      <c r="E9" s="3">
         <v>145400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>137800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>167900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>141000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>142500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>135900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>122100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>111200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>101800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>94300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>123300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>131500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>134100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>137100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>140700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>144000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>141200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>145300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>139500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>279700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>282700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>269200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>133400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>107700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>82100</v>
+      </c>
+      <c r="E10" s="3">
         <v>86300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>82500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>85500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>75100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>81100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>77600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>64100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>55300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>56000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>44800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>66200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>67900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>73500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>75600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>76000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>73400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>75900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>79700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>74600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-71000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>-69900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>-65500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>50300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>44800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,79 +1058,80 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E12" s="3">
         <v>5500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>3400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>3300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>3100</v>
-      </c>
-      <c r="U12" s="3">
-        <v>3700</v>
       </c>
       <c r="V12" s="3">
         <v>3700</v>
       </c>
       <c r="W12" s="3">
+        <v>3700</v>
+      </c>
+      <c r="X12" s="3">
         <v>3300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>3700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>2900</v>
-      </c>
-      <c r="Z12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA12" s="3" t="s">
         <v>8</v>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1222,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,20 +1237,20 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-5800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>27000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -1251,23 +1270,23 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-1000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>15600</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>11100</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
@@ -1278,51 +1297,54 @@
         <v>0</v>
       </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>2400</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E15" s="3">
         <v>6400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>6500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>6600</v>
-      </c>
-      <c r="G15" s="3">
-        <v>6300</v>
       </c>
       <c r="H15" s="3">
         <v>6300</v>
       </c>
       <c r="I15" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J15" s="3">
         <v>6100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3100</v>
-      </c>
-      <c r="N15" s="3">
-        <v>3200</v>
       </c>
       <c r="O15" s="3">
         <v>3200</v>
@@ -1331,43 +1353,46 @@
         <v>3200</v>
       </c>
       <c r="Q15" s="3">
+        <v>3200</v>
+      </c>
+      <c r="R15" s="3">
         <v>3300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>3900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>4000</v>
-      </c>
-      <c r="W15" s="3">
-        <v>3900</v>
       </c>
       <c r="X15" s="3">
         <v>3900</v>
       </c>
       <c r="Y15" s="3">
+        <v>3900</v>
+      </c>
+      <c r="Z15" s="3">
         <v>3700</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>2800</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>1800</v>
       </c>
       <c r="AB15" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>210200</v>
+      </c>
+      <c r="E17" s="3">
         <v>204400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>197500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>229300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>200800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>217500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>172000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>156100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>142000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>137300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>172800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>178500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>182400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>185700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>192300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>210800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>192300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>211500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>197800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>195000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>193600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>184100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>188200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>147200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>139300</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E18" s="3">
         <v>27300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>22800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>24100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>15300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>23600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>14200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>15800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>16700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>20900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>25200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>27000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>24400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>6600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>24800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>13500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>16300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>13700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>19200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>19600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-4500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>5300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,408 +1615,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-800</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-17000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-1500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E21" s="3">
         <v>36300</v>
-      </c>
-      <c r="E21" s="3">
-        <v>34000</v>
       </c>
       <c r="F21" s="3">
         <v>34000</v>
       </c>
       <c r="G21" s="3">
+        <v>34000</v>
+      </c>
+      <c r="H21" s="3">
         <v>25600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>34400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>20800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>17200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>24500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>28200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>32800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>35000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>32500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>14600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>32800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>22900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>25000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>23300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>28700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>28600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>2600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>9600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E22" s="3">
         <v>6800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>5800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2900</v>
-      </c>
-      <c r="K22" s="3">
-        <v>3000</v>
       </c>
       <c r="L22" s="3">
         <v>3000</v>
       </c>
       <c r="M22" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="N22" s="3">
         <v>3200</v>
       </c>
       <c r="O22" s="3">
+        <v>3200</v>
+      </c>
+      <c r="P22" s="3">
         <v>3400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>4600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>4700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>4900</v>
-      </c>
-      <c r="X22" s="3">
-        <v>5100</v>
       </c>
       <c r="Y22" s="3">
         <v>5100</v>
       </c>
       <c r="Z22" s="3">
+        <v>5100</v>
+      </c>
+      <c r="AA22" s="3">
         <v>3600</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>2300</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E23" s="3">
         <v>19100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>17300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>18000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>11000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>19300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-9800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>10900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>14200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>17500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>21700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>23700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>20600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>20500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>9500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>11100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>9300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>14600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>14800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-8400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E24" s="3">
         <v>5000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-1000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>900</v>
-      </c>
-      <c r="S24" s="3">
-        <v>4600</v>
       </c>
       <c r="T24" s="3">
         <v>4600</v>
       </c>
       <c r="U24" s="3">
+        <v>4600</v>
+      </c>
+      <c r="V24" s="3">
         <v>1800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>3600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>19900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>3100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-3700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E26" s="3">
         <v>14100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>11800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>9900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>15200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>9600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>9200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>15300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>16600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>18600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>19700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>15900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>7700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>7400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-10600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>12500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>11700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-4700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E27" s="3">
         <v>14100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>11800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>9900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>15200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>9600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>9200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>15300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>16600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>18600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>19700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>15900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>7700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>7400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-10600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>12500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>11700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-4700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2332,8 +2392,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2350,26 +2410,26 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>1500</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>1000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-18600</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E32" s="3">
         <v>1500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>800</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>17000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>1500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E33" s="3">
         <v>14100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>8400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>11800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>9900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>15200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>9600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>9200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>15300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>16600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>18600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>19700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>15900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>7700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>8500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-29200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>12500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>11700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-4700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E35" s="3">
         <v>14100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>8400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>11800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>9900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>15200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>9600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>9200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>15300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>16600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>18600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>19700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>15900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>7700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>8500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-29200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>12500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>11700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-4700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3093,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>81500</v>
+      </c>
+      <c r="E41" s="3">
         <v>88900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>85700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>115400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>106700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>105300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>88700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>202100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>187600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>186600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>152200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>114500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>84000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>72000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>55700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>71100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>58100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>57700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>57100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>63000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>64600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>69500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>64600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>77600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>51500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>45700</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,568 +3257,592 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>146900</v>
+      </c>
+      <c r="E43" s="3">
         <v>140300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>133000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>147500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>125900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>125500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>123200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>105500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>94200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>92500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>96500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>123700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>125400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>130000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>135500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>129200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>123400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>132100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>129800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>127800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>123500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>126400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>119700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>111600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>74900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>80400</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>200700</v>
+      </c>
+      <c r="E44" s="3">
         <v>192800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>189300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>172100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>175100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>147900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>138700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>111500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>113400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>112100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>124600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>127400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>135400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>142400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>151000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>146300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>149700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>158300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>155700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>152900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>144700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>139300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>135300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>130600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>109100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>116200</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E45" s="3">
         <v>37500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>34600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>31500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>33400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>28900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>31700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>22800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>18900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>18100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>19700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>17200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>16900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>16700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>15900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>16100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>16600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>17000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>16800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>16600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>17800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>16800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>19600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>21100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>16300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>463600</v>
+      </c>
+      <c r="E46" s="3">
         <v>459500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>442600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>466600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>441100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>407600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>382200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>441800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>414100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>409300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>392900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>382700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>361700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>361100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>358100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>362600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>347800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>365100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>359400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>360300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>350500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>352000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>339300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>341000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>251800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>256500</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E47" s="3">
         <v>12400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>12700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>13100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>13900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>13500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>13400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>11000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>10900</v>
-      </c>
-      <c r="L47" s="3">
-        <v>11200</v>
       </c>
       <c r="M47" s="3">
         <v>11200</v>
       </c>
       <c r="N47" s="3">
+        <v>11200</v>
+      </c>
+      <c r="O47" s="3">
         <v>7300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>7400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>7900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>7600</v>
-      </c>
-      <c r="R47" s="3">
-        <v>7000</v>
       </c>
       <c r="S47" s="3">
         <v>7000</v>
       </c>
       <c r="T47" s="3">
+        <v>7000</v>
+      </c>
+      <c r="U47" s="3">
         <v>7200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>7600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>7700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>7600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>8100</v>
-      </c>
-      <c r="Y47" s="3">
-        <v>7700</v>
       </c>
       <c r="Z47" s="3">
         <v>7700</v>
       </c>
       <c r="AA47" s="3">
+        <v>7700</v>
+      </c>
+      <c r="AB47" s="3">
         <v>8100</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>127100</v>
+      </c>
+      <c r="E48" s="3">
         <v>121100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>123900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>128700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>129400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>128600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>133400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>108900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>108600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>109900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>113700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>79500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>81100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>82700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>85100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>87300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>88700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>102300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>104500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>113100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>111800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>113100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>112700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>113000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>99200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1010100</v>
+      </c>
+      <c r="E49" s="3">
         <v>993100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1019400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1039600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1057600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1008000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1023800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>544500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>560700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>550300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>540000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>537600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>546000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>540300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>556800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>555800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>566300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>574000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>580000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>611200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>605000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>603000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>595100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>575500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>285500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>289700</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4004,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>35900</v>
+      </c>
+      <c r="E52" s="3">
         <v>43300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>36200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>37700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>29400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>28300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>27900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>44100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>53000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>51200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>44700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>86100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>83700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>79400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>82900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>48900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>52800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>55400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>56100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>50200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>56200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>69600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>71600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>76700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>81000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>81900</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1649400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1629300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1634700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1685700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1671500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1586000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1580600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1150400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1147400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1131900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1102600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1093300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1079900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1071400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1090500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1061600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1062500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1104000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1107600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1142400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1131100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1145700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1126400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1113800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>725600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>739700</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,88 +4317,92 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>70600</v>
+      </c>
+      <c r="E57" s="3">
         <v>76600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>73900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>90900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>74100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>71500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>71600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>68600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>49600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>37700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>38900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>57300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>46300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>49000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>40200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>47000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>39700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>41400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>43400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>47000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>42900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>42000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>40500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>41000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>28200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4283,31 +4416,31 @@
         <v>40600</v>
       </c>
       <c r="G58" s="3">
+        <v>40600</v>
+      </c>
+      <c r="H58" s="3">
         <v>40500</v>
-      </c>
-      <c r="H58" s="3">
-        <v>60500</v>
       </c>
       <c r="I58" s="3">
         <v>60500</v>
       </c>
       <c r="J58" s="3">
-        <v>4500</v>
+        <v>60500</v>
       </c>
       <c r="K58" s="3">
         <v>4500</v>
       </c>
       <c r="L58" s="3">
-        <v>29500</v>
+        <v>4500</v>
       </c>
       <c r="M58" s="3">
         <v>29500</v>
       </c>
       <c r="N58" s="3">
+        <v>29500</v>
+      </c>
+      <c r="O58" s="3">
         <v>4500</v>
-      </c>
-      <c r="O58" s="3">
-        <v>65000</v>
       </c>
       <c r="P58" s="3">
         <v>65000</v>
@@ -4319,7 +4452,7 @@
         <v>65000</v>
       </c>
       <c r="S58" s="3">
-        <v>60000</v>
+        <v>65000</v>
       </c>
       <c r="T58" s="3">
         <v>60000</v>
@@ -4328,348 +4461,363 @@
         <v>60000</v>
       </c>
       <c r="V58" s="3">
-        <v>60100</v>
+        <v>60000</v>
       </c>
       <c r="W58" s="3">
         <v>60100</v>
       </c>
       <c r="X58" s="3">
+        <v>60100</v>
+      </c>
+      <c r="Y58" s="3">
         <v>49700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>49800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>52600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>13100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>104800</v>
+        <v>104200</v>
       </c>
       <c r="E59" s="3">
         <v>104800</v>
       </c>
       <c r="F59" s="3">
+        <v>104800</v>
+      </c>
+      <c r="G59" s="3">
         <v>118200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>116400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>104900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>113100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>110800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>90100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>88700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>91900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>93600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>94200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>95100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>99800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>99300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>95500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>95600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>92300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>100000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>90900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>88100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>85300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>97400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>51200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>215400</v>
+      </c>
+      <c r="E60" s="3">
         <v>222000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>219300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>249600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>231000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>236900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>245200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>183900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>144100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>155900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>160300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>155300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>205500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>209100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>205000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>211300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>195300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>197000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>195800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>207000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>193900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>179800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>175600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>191000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>92500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>123100</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>440900</v>
+      </c>
+      <c r="E61" s="3">
         <v>450800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>460800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>470700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>480600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>392700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>398800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>244500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>245100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>245700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>246300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>246900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>186900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>206400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>225800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>235300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>254800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>279300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>293800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>303300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>317800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>342500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>358200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>368800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>221100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>196800</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>182200</v>
+      </c>
+      <c r="E62" s="3">
         <v>172100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>179500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>192600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>214200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>221200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>212200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>191900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>260900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>250400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>229400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>227500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>203100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>192100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>207300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>183800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>192000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>203400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>208400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>224000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>235400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>236600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>228600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>212800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>119700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>121300</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>838600</v>
+      </c>
+      <c r="E66" s="3">
         <v>844900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>859500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>912900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>925800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>850800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>856200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>620300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>650100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>652000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>636000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>629700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>595500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>607600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>638200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>630400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>642100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>679700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>698000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>734200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>747100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>758900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>762400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>772500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>433300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>441200</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>346900</v>
+      </c>
+      <c r="E72" s="3">
         <v>336800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>324700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>316300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>308200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>300000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>286500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>293800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>287100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>281900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>287500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>290400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>284000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>270200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>255000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>236500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>219300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>221200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>206500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>197900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>191500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>203000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>191400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>179700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>186300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>186600</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>810900</v>
+      </c>
+      <c r="E76" s="3">
         <v>784400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>775200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>772800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>745600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>735200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>724500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>530100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>497300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>480000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>466600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>463600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>484400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>463800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>452300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>431200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>420400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>424300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>409600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>408200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>384000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>386800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>364000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>341400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>292300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E81" s="3">
         <v>14100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>8400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>11800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>9900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>15200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>9600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>9200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>15300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>16600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>18600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>19700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>15900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>7700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>8500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-29200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>12500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>11700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-4700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,37 +6210,38 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E83" s="3">
         <v>10400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>10500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>10700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>10300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>10500</v>
       </c>
       <c r="I83" s="3">
         <v>10500</v>
       </c>
       <c r="J83" s="3">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="K83" s="3">
         <v>7000</v>
       </c>
       <c r="L83" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="M83" s="3">
         <v>7100</v>
@@ -6052,49 +6250,52 @@
         <v>7100</v>
       </c>
       <c r="O83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="P83" s="3">
         <v>7200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7400</v>
-      </c>
-      <c r="R83" s="3">
-        <v>7900</v>
       </c>
       <c r="S83" s="3">
         <v>7900</v>
       </c>
       <c r="T83" s="3">
+        <v>7900</v>
+      </c>
+      <c r="U83" s="3">
         <v>8000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>8800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>9300</v>
-      </c>
-      <c r="W83" s="3">
-        <v>9100</v>
       </c>
       <c r="X83" s="3">
         <v>9100</v>
       </c>
       <c r="Y83" s="3">
+        <v>9100</v>
+      </c>
+      <c r="Z83" s="3">
         <v>8700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>7500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>5800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E89" s="3">
         <v>17300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-11200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>25200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>25300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>26900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>25000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>37400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>9500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>36500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>32400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>40000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>25700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>26200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>19500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>8100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>18400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>16500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>20300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>14400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>11900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>22900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6822,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-5100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-3100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-2800</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7069,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-70100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-480400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>5400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>4300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>2600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-5300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-6000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-4300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-16600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-215900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-8100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6965,7 +7198,7 @@
         <v>-2000</v>
       </c>
       <c r="F96" s="3">
-        <v>-1700</v>
+        <v>-2000</v>
       </c>
       <c r="G96" s="3">
         <v>-1700</v>
@@ -6974,7 +7207,7 @@
         <v>-1700</v>
       </c>
       <c r="I96" s="3">
-        <v>-1400</v>
+        <v>-1700</v>
       </c>
       <c r="J96" s="3">
         <v>-1400</v>
@@ -7001,7 +7234,7 @@
         <v>-1400</v>
       </c>
       <c r="R96" s="3">
-        <v>-1200</v>
+        <v>-1400</v>
       </c>
       <c r="S96" s="3">
         <v>-1200</v>
@@ -7013,7 +7246,7 @@
         <v>-1200</v>
       </c>
       <c r="V96" s="3">
-        <v>-900</v>
+        <v>-1200</v>
       </c>
       <c r="W96" s="3">
         <v>-900</v>
@@ -7028,13 +7261,16 @@
         <v>-900</v>
       </c>
       <c r="AA96" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="AB96" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7515,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-11500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-12900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-12600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>66400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-6900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>373800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-26200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>21700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-20800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-10900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-16000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-27500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-16200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-8100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-16400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-15500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-12600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-15000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>226600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-6400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-12200</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-3900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>4200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>3400</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-2600</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E102" s="3">
         <v>3200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-29700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>8700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>16700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-113500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>14500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>34300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>37800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>30400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>12000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>16300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-15400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>13000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-5900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-4900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>4800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-13000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>26100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>5800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>2500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>CMCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,397 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>235500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>253800</v>
+      </c>
+      <c r="F8" s="3">
         <v>230400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>231700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>220300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>253400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>216100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>223600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>213500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>186200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>166500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>157800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>139100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>189500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>199400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>207600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>212700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>216700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>217400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>217100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>225000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>214100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>208700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>212800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>203700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>183700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>152500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>151900</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>148800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>162600</v>
+      </c>
+      <c r="F9" s="3">
         <v>148300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>145400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>137800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>167900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>141000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>142500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>135900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>122100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>111200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>101800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>94300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>123300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>131500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>134100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>137100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>140700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>144000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>141200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>145300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>139500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>279700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>282700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>269200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>133400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>107700</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>86700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>91200</v>
+      </c>
+      <c r="F10" s="3">
         <v>82100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>86300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>82500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>85500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>75100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>81100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>77600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>64100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>55300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>56000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>44800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>66200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>67900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>73500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>75600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>76000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>73400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>75900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>79700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>74600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>-71000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>-69900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>-65500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>50300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>44800</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,91 +1085,99 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>4800</v>
+        <v>5900</v>
       </c>
       <c r="E12" s="3">
         <v>5500</v>
       </c>
       <c r="F12" s="3">
+        <v>4800</v>
+      </c>
+      <c r="G12" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H12" s="3">
         <v>5100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>4100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>3900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>3800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>3600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>3700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>3000</v>
-      </c>
-      <c r="M12" s="3">
-        <v>2900</v>
-      </c>
-      <c r="N12" s="3">
-        <v>2800</v>
       </c>
       <c r="O12" s="3">
         <v>2900</v>
       </c>
       <c r="P12" s="3">
+        <v>2800</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>2900</v>
+      </c>
+      <c r="R12" s="3">
         <v>2600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>3000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>2800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>3400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>3300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>3100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>3700</v>
-      </c>
-      <c r="W12" s="3">
-        <v>3700</v>
-      </c>
-      <c r="X12" s="3">
-        <v>3300</v>
       </c>
       <c r="Y12" s="3">
         <v>3700</v>
       </c>
       <c r="Z12" s="3">
+        <v>3300</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>3700</v>
+      </c>
+      <c r="AB12" s="3">
         <v>2900</v>
-      </c>
-      <c r="AA12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,13 +1259,19 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1240,23 +1280,23 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-5800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>27000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -1273,26 +1313,26 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>-1000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>15600</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>11100</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
@@ -1300,45 +1340,51 @@
         <v>0</v>
       </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>2400</v>
       </c>
-      <c r="AB14" s="3" t="s">
+      <c r="AD14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AE14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>6500</v>
+        <v>6900</v>
       </c>
       <c r="E15" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="F15" s="3">
         <v>6500</v>
       </c>
       <c r="G15" s="3">
+        <v>6400</v>
+      </c>
+      <c r="H15" s="3">
+        <v>6500</v>
+      </c>
+      <c r="I15" s="3">
         <v>6600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>6300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>6300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>6100</v>
-      </c>
-      <c r="K15" s="3">
-        <v>3200</v>
-      </c>
-      <c r="L15" s="3">
-        <v>3100</v>
       </c>
       <c r="M15" s="3">
         <v>3200</v>
@@ -1350,49 +1396,55 @@
         <v>3200</v>
       </c>
       <c r="P15" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="Q15" s="3">
         <v>3200</v>
       </c>
       <c r="R15" s="3">
+        <v>3200</v>
+      </c>
+      <c r="S15" s="3">
+        <v>3200</v>
+      </c>
+      <c r="T15" s="3">
         <v>3300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>3500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>3700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>3800</v>
-      </c>
-      <c r="V15" s="3">
-        <v>3900</v>
-      </c>
-      <c r="W15" s="3">
-        <v>4000</v>
       </c>
       <c r="X15" s="3">
         <v>3900</v>
       </c>
       <c r="Y15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Z15" s="3">
         <v>3900</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
+        <v>3900</v>
+      </c>
+      <c r="AB15" s="3">
         <v>3700</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>2800</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AD15" s="3">
         <v>1800</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AE15" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1471,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>214000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>226400</v>
+      </c>
+      <c r="F17" s="3">
         <v>210200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>204400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>197500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>229300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>200800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>200000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>217500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>172000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>156100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>142000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>137300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>172800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>178500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>182400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>185700</v>
-      </c>
-      <c r="S17" s="3">
-        <v>192300</v>
-      </c>
-      <c r="T17" s="3">
-        <v>210800</v>
       </c>
       <c r="U17" s="3">
         <v>192300</v>
       </c>
       <c r="V17" s="3">
+        <v>210800</v>
+      </c>
+      <c r="W17" s="3">
+        <v>192300</v>
+      </c>
+      <c r="X17" s="3">
         <v>211500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>197800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>195000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>193600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>184100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>188200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>147200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>139300</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>27400</v>
+      </c>
+      <c r="F18" s="3">
         <v>20200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>27300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>22800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>24100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>15300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>23600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-4000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>14200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>10400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>15800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>16700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>20900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>25200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>27000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>24400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>6600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>24800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>13500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>16300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>13700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>19200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>19600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-4500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>5300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,423 +1682,455 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F20" s="3">
         <v>3800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-800</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-17000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-2600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>700</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>-1500</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>39600</v>
+      </c>
+      <c r="F21" s="3">
         <v>34500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>36300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>34000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>34000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>25600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>34400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>6500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>20800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>17200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>6000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>6300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>24500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>28200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>32800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>35000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>32500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>14600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>32800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>22900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>25000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>23300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>28700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>28600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>2600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>9600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F22" s="3">
         <v>7300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>6800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>6200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>5400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>4400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>4600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>5800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>2900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>3000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>3000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>3200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>3200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>3400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>3800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>3900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>4000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>4300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>4200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>4600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>4700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>4900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>5100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>5100</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>3600</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>2300</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AE22" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>21400</v>
+      </c>
+      <c r="F23" s="3">
         <v>16700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>19100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>17300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>18000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>11000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>19300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-9800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>10900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>7200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-4100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-3900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>14200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>17500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>21700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>23700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>20600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>2300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>20500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>9500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>11100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>9300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>14600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>14800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-8400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>1500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F24" s="3">
         <v>4700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>5000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>8900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>6200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>1100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>4100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-2500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-1000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>4900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>2200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>5100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>5200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>4600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>4600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>1800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>3600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>19900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>2100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>3100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>-3700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>1000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>13900</v>
+      </c>
+      <c r="F26" s="3">
         <v>12000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>14100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>8400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>11800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>9900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>15200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-7300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>9600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>6600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-4100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-3000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>9200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>15300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>16600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>18600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>19700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-2300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>15900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>7700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>7400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-10600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>12500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>11700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-4700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>13900</v>
+      </c>
+      <c r="F27" s="3">
         <v>12000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>14100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>8400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>11800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>9900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>15200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-7300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>9600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>6600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-4100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-3000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>9200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>15300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>16600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>18600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>19700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-2300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>15900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>7700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>7400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-10600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>12500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>11700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-4700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2395,11 +2517,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2413,29 +2535,29 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>1500</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3" t="s">
+      <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="Y29" s="3">
         <v>1000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Z29" s="3">
         <v>-18600</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2446,8 +2568,14 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2746,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>800</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>17000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>2600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-700</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>1500</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>13900</v>
+      </c>
+      <c r="F33" s="3">
         <v>12000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>14100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>8400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>11800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>9900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>15200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-7300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>9600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>6600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-4100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-3000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>9200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>15300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>16600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>18600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>19700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>15900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>7700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>8500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-29200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>12500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>11700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-4700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>13900</v>
+      </c>
+      <c r="F35" s="3">
         <v>12000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>14100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>8400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>11800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>9900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>15200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-7300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>9600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>6600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-4100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-3000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>9200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>15300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>16600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>18600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>19700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>15900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>7700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>8500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-29200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>12500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>11700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-4700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,91 +3266,99 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>107000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>133200</v>
+      </c>
+      <c r="F41" s="3">
         <v>81500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>88900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>85700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>115400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>106700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>105300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>88700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>202100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>187600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>186600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>152200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>114500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>84000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>72000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>55700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>71100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>58100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>57700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>57100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>63000</v>
-      </c>
-      <c r="X41" s="3">
-        <v>64600</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>69500</v>
       </c>
       <c r="Z41" s="3">
         <v>64600</v>
       </c>
       <c r="AA41" s="3">
+        <v>69500</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>64600</v>
+      </c>
+      <c r="AC41" s="3">
         <v>77600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>51500</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>45700</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,589 +3440,637 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>165100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>151500</v>
+      </c>
+      <c r="F43" s="3">
         <v>146900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>140300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>133000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>147500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>125900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>125500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>123200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>105500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>94200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>92500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>96500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>123700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>125400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>130000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>135500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>129200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>123400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>132100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>129800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>127800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>123500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>126400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>119700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>111600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>74900</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>80400</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>204700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>179400</v>
+      </c>
+      <c r="F44" s="3">
         <v>200700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>192800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>189300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>172100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>175100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>147900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>138700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>111500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>113400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>112100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>124600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>127400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>135400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>142400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>151000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>146300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>149700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>158300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>155700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>152900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>144700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>139300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>135300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>130600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>109100</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AE44" s="3">
         <v>116200</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>32300</v>
+      </c>
+      <c r="F45" s="3">
         <v>34500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>37500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>34600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>31500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>33400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>28900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>31700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>22800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>18900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>18100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>19700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>17200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>16900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>16700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>15900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>16100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>16600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>17000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>16800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>16600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>17800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>16800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>19600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>21100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>16300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>514200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>496200</v>
+      </c>
+      <c r="F46" s="3">
         <v>463600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>459500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>442600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>466600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>441100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>407600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>382200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>441800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>414100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>409300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>392900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>382700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>361700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>361100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>358100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>362600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>347800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>365100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>359400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>360300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>350500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>352000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>339300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>341000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>251800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>256500</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E47" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F47" s="3">
         <v>12800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>12400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>12700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>13100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>13900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>13500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>13400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>11000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>10900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>11200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>11200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>7300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>7400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>7900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>7600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>7000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>7000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>7200</v>
-      </c>
-      <c r="V47" s="3">
-        <v>7600</v>
-      </c>
-      <c r="W47" s="3">
-        <v>7700</v>
       </c>
       <c r="X47" s="3">
         <v>7600</v>
       </c>
       <c r="Y47" s="3">
+        <v>7700</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>7600</v>
+      </c>
+      <c r="AA47" s="3">
         <v>8100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>7700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>7700</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>8100</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AE47" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>154500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>147900</v>
+      </c>
+      <c r="F48" s="3">
         <v>127100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>121100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>123900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>128700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>129400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>128600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>133400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>108900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>108600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>109900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>113700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>79500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>81100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>82700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>85100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>87300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>88700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>102300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>104500</v>
-      </c>
-      <c r="W48" s="3">
-        <v>113100</v>
-      </c>
-      <c r="X48" s="3">
-        <v>111800</v>
       </c>
       <c r="Y48" s="3">
         <v>113100</v>
       </c>
       <c r="Z48" s="3">
+        <v>111800</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>113100</v>
+      </c>
+      <c r="AB48" s="3">
         <v>112700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>113000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>99200</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1141500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1007200</v>
+      </c>
+      <c r="F49" s="3">
         <v>1010100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>993100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1019400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1039600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1057600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1008000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1023800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>544500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>560700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>550300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>540000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>537600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>546000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>540300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>556800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>555800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>566300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>574000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>580000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>611200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>605000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>603000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>595100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>575500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>285500</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>289700</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4241,103 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>34000</v>
+      </c>
+      <c r="F52" s="3">
         <v>35900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>43300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>36200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>37700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>29400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>28300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>27900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>44100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>53000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>51200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>44700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>86100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>83700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>79400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>82900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>48900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>52800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>55400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>56100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>50200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>56200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>69600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>71600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>76700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>81000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AE52" s="3">
         <v>81900</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1859500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1698500</v>
+      </c>
+      <c r="F54" s="3">
         <v>1649400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1629300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1634700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1685700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1671500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1586000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1580600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1150400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1147400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1131900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1102600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1093300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1079900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1071400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1090500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1061600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1062500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1104000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1107600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1142400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1131100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1145700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>1126400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>1113800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>725600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>739700</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,91 +4578,99 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>77400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>76700</v>
+      </c>
+      <c r="F57" s="3">
         <v>70600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>76600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>73900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>90900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>74100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>71500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>71600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>68600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>49600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>37700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>38900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>57300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>46300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>49000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>40200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>47000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>39700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>41400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>43400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>47000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>42900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>42000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>40500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>41000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>28200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4419,34 +4687,34 @@
         <v>40600</v>
       </c>
       <c r="H58" s="3">
+        <v>40600</v>
+      </c>
+      <c r="I58" s="3">
+        <v>40600</v>
+      </c>
+      <c r="J58" s="3">
         <v>40500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>60500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>60500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>4500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>4500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>29500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>29500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>4500</v>
-      </c>
-      <c r="P58" s="3">
-        <v>65000</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>65000</v>
       </c>
       <c r="R58" s="3">
         <v>65000</v>
@@ -4455,369 +4723,399 @@
         <v>65000</v>
       </c>
       <c r="T58" s="3">
-        <v>60000</v>
+        <v>65000</v>
       </c>
       <c r="U58" s="3">
-        <v>60000</v>
+        <v>65000</v>
       </c>
       <c r="V58" s="3">
         <v>60000</v>
       </c>
       <c r="W58" s="3">
+        <v>60000</v>
+      </c>
+      <c r="X58" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Y58" s="3">
         <v>60100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>60100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>49700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>49800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>52600</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>13100</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AE58" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>145900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>124300</v>
+      </c>
+      <c r="F59" s="3">
         <v>104200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>104800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>104800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>118200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>116400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>104900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>113100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>110800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>90100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>88700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>91900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>93600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>94200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>95100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>99800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>99300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>95500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>95600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>92300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>100000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>90900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>88100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>85300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>97400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>51200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>263900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>241700</v>
+      </c>
+      <c r="F60" s="3">
         <v>215400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>222000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>219300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>249600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>231000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>236900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>245200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>183900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>144100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>155900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>160300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>155300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>205500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>209100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>205000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>211300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>195300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>197000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>195800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>207000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>193900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>179800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>175600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>191000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>92500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>123100</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>539200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>431000</v>
+      </c>
+      <c r="F61" s="3">
         <v>440900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>450800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>460800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>470700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>480600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>392700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>398800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>244500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>245100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>245700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>246300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>246900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>186900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>206400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>225800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>235300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>254800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>279300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>293800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>303300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>317800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>342500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>358200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>368800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>221100</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AE61" s="3">
         <v>196800</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>209500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>192000</v>
+      </c>
+      <c r="F62" s="3">
         <v>182200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>172100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>179500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>192600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>214200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>221200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>212200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>191900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>260900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>250400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>229400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>227500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>203100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>192100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>207300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>183800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>192000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>203400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>208400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>224000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>235400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>236600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>228600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>212800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>119700</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>121300</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1012600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>864700</v>
+      </c>
+      <c r="F66" s="3">
         <v>838600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>844900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>859500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>912900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>925800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>850800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>856200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>620300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>650100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>652000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>636000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>629700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>595500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>607600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>638200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>630400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>642100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>679700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>698000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>734200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>747100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>758900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>762400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>772500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>433300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>441200</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>366000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>356800</v>
+      </c>
+      <c r="F72" s="3">
         <v>346900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>336800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>324700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>316300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>308200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>300000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>286500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>293800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>287100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>281900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>287500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>290400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>284000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>270200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>255000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>236500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>219300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>221200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>206500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>197900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>191500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>203000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>191400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>179700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>186300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>186600</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>847000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>833800</v>
+      </c>
+      <c r="F76" s="3">
         <v>810900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>784400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>775200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>772800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>745600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>735200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>724500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>530100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>497300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>480000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>466600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>463600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>484400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>463800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>452300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>431200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>420400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>424300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>409600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>408200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>384000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>386800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>364000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>341400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>292300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>13900</v>
+      </c>
+      <c r="F81" s="3">
         <v>12000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>14100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>8400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>11800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>9900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>15200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-7300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>9600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>6600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-4100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-3000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>9200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>15300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>16600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>18600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>19700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>15900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>7700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>8500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-29200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>12500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>11700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-4700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6607,99 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>10500</v>
+        <v>10900</v>
       </c>
       <c r="E83" s="3">
-        <v>10400</v>
+        <v>10600</v>
       </c>
       <c r="F83" s="3">
         <v>10500</v>
       </c>
       <c r="G83" s="3">
+        <v>10400</v>
+      </c>
+      <c r="H83" s="3">
+        <v>10500</v>
+      </c>
+      <c r="I83" s="3">
         <v>10700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>10300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>10500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>10500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>7000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>7000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>7100</v>
-      </c>
-      <c r="N83" s="3">
-        <v>7100</v>
       </c>
       <c r="O83" s="3">
         <v>7100</v>
       </c>
       <c r="P83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="R83" s="3">
         <v>7200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>7300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>7400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>7900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>7900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>8000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>8800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>9300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>9100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>9100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>8700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>7500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>5800</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AE83" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +7137,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>66700</v>
+      </c>
+      <c r="F89" s="3">
         <v>10800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>17300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-11200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>25200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>5800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>25300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-7400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>26900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>25000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>37400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>9500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>36500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>32400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>40000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-2200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>25700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>26200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>19500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>8100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>18400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>16500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>20300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>14400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>11900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>22900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7263,99 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-4200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-2300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-3000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-3600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-2800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-3100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-3600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-6400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-3100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-2700</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-3000</v>
       </c>
       <c r="R91" s="3">
         <v>-1900</v>
       </c>
       <c r="S91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="T91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="U91" s="3">
         <v>-5100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-2400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-2500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-2300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-5100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-4200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-3100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-2800</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AE91" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7526,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-112700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-3900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-2200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-4800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-3400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-70100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-480400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-6400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-2900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>5400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-3000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-3200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-2400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>4300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>2600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-2400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-2100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-5300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-6000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-4300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-16600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-215900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-8100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7201,19 +7669,19 @@
         <v>-2000</v>
       </c>
       <c r="G96" s="3">
-        <v>-1700</v>
+        <v>-2000</v>
       </c>
       <c r="H96" s="3">
-        <v>-1700</v>
+        <v>-2000</v>
       </c>
       <c r="I96" s="3">
         <v>-1700</v>
       </c>
       <c r="J96" s="3">
-        <v>-1400</v>
+        <v>-1700</v>
       </c>
       <c r="K96" s="3">
-        <v>-1400</v>
+        <v>-1700</v>
       </c>
       <c r="L96" s="3">
         <v>-1400</v>
@@ -7237,10 +7705,10 @@
         <v>-1400</v>
       </c>
       <c r="S96" s="3">
-        <v>-1200</v>
+        <v>-1400</v>
       </c>
       <c r="T96" s="3">
-        <v>-1200</v>
+        <v>-1400</v>
       </c>
       <c r="U96" s="3">
         <v>-1200</v>
@@ -7249,10 +7717,10 @@
         <v>-1200</v>
       </c>
       <c r="W96" s="3">
-        <v>-900</v>
+        <v>-1200</v>
       </c>
       <c r="X96" s="3">
-        <v>-900</v>
+        <v>-1200</v>
       </c>
       <c r="Y96" s="3">
         <v>-900</v>
@@ -7264,13 +7732,19 @@
         <v>-900</v>
       </c>
       <c r="AB96" s="3">
+        <v>-900</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>-900</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-800</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AE96" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,253 +8004,277 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-13200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-11500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-12900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-12600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>66400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-6900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>373800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-2500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-26200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-3200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>21700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-20800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-18600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-10900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-16000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-27500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-16200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-8100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-16400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-15500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-12600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-15000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>226600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-6400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>-12200</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>300</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-1400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-3500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>4000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>3000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>1100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>1800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-1900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-3900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>1800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>1500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>4200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>3400</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>-2600</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AE101" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>51700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-7300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>3200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-29700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>8700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>16700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-113500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>14500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>34300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>37800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>30400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>12000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>16300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-15400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>13000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-5900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-1600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-4900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>4800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-13000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>26100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>5800</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>2500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>CMCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>258400</v>
+      </c>
+      <c r="E8" s="3">
         <v>235500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>253800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>230400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>231700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>220300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>253400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>216100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>223600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>213500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>186200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>166500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>157800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>139100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>189500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>199400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>207600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>212700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>216700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>217400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>217100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>225000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>214100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>208700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>212800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>203700</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>183700</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>152500</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>151900</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>158400</v>
+      </c>
+      <c r="E9" s="3">
         <v>148800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>162600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>148300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>145400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>137800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>167900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>141000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>142500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>135900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>122100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>111200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>101800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>94300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>123300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>131500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>134100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>137100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>140700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>144000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>141200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>145300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>139500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>279700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>282700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>269200</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>133400</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>107700</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E10" s="3">
         <v>86700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>91200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>82100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>86300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>82500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>85500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>75100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>81100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>77600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>64100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>55300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>56000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>44800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>66200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>67900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>73500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>75600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>76000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>73400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>75900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>79700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>74600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>-71000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>-69900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>-65500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>50300</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>44800</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,88 +1100,89 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E12" s="3">
         <v>5900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>3000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>2800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>3400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>3300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>3100</v>
-      </c>
-      <c r="X12" s="3">
-        <v>3700</v>
       </c>
       <c r="Y12" s="3">
         <v>3700</v>
       </c>
       <c r="Z12" s="3">
+        <v>3700</v>
+      </c>
+      <c r="AA12" s="3">
         <v>3300</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>3700</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>2900</v>
-      </c>
-      <c r="AC12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AD12" s="3" t="s">
         <v>8</v>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,16 +1282,19 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1286,20 +1306,20 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-5800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>27000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
@@ -1319,23 +1339,23 @@
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-1000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>15600</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>11100</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
         <v>0</v>
       </c>
@@ -1346,60 +1366,63 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
         <v>2400</v>
-      </c>
-      <c r="AD14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AE14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E15" s="3">
         <v>6900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>6600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>6500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>6400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>6500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>6600</v>
-      </c>
-      <c r="J15" s="3">
-        <v>6300</v>
       </c>
       <c r="K15" s="3">
         <v>6300</v>
       </c>
       <c r="L15" s="3">
+        <v>6300</v>
+      </c>
+      <c r="M15" s="3">
         <v>6100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3100</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>3200</v>
       </c>
       <c r="R15" s="3">
         <v>3200</v>
@@ -1408,43 +1431,46 @@
         <v>3200</v>
       </c>
       <c r="T15" s="3">
+        <v>3200</v>
+      </c>
+      <c r="U15" s="3">
         <v>3300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>3500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>3700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>3800</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>3900</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>4000</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>3900</v>
       </c>
       <c r="AA15" s="3">
         <v>3900</v>
       </c>
       <c r="AB15" s="3">
+        <v>3900</v>
+      </c>
+      <c r="AC15" s="3">
         <v>3700</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>2800</v>
-      </c>
-      <c r="AD15" s="3">
-        <v>1800</v>
       </c>
       <c r="AE15" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>225000</v>
+      </c>
+      <c r="E17" s="3">
         <v>214000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>226400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>210200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>204400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>197500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>229300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>200800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>217500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>172000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>156100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>142000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>137300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>172800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>178500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>182400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>185700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>192300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>210800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>192300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>211500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>197800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>195000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>193600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>184100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>188200</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>147200</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>139300</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E18" s="3">
         <v>21500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>27400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>20200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>27300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>22800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>24100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>15300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>23600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>14200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>10400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>15800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>16700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>20900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>25200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>27000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>24400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>6600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>24800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>13500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>16300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>13700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>19200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>19600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-4500</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>5300</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,453 +1717,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-800</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-17000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>700</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>300</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-400</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-1500</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>42700</v>
+      </c>
+      <c r="E21" s="3">
         <v>32200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>39600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>34500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>36300</v>
-      </c>
-      <c r="H21" s="3">
-        <v>34000</v>
       </c>
       <c r="I21" s="3">
         <v>34000</v>
       </c>
       <c r="J21" s="3">
+        <v>34000</v>
+      </c>
+      <c r="K21" s="3">
         <v>25600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>34400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>20800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>17200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>6000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>6300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>24500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>28200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>32800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>35000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>32500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>14600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>32800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>22900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>25000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>23300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>28700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>28600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>2600</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>9600</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E22" s="3">
         <v>8600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>6800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>6200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>5400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2900</v>
-      </c>
-      <c r="N22" s="3">
-        <v>3000</v>
       </c>
       <c r="O22" s="3">
         <v>3000</v>
       </c>
       <c r="P22" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="Q22" s="3">
         <v>3200</v>
       </c>
       <c r="R22" s="3">
+        <v>3200</v>
+      </c>
+      <c r="S22" s="3">
         <v>3400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>3900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>4000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>4300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>4200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>4600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>4700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>4900</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>5100</v>
       </c>
       <c r="AB22" s="3">
         <v>5100</v>
       </c>
       <c r="AC22" s="3">
+        <v>5100</v>
+      </c>
+      <c r="AD22" s="3">
         <v>3600</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>2300</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E23" s="3">
         <v>12700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>21400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>16700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>19100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>17300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>18000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>11000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>19300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>10900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>14200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>17500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>21700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>23700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>20600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>20500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>9500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>11100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>9300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>14600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>14800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-8400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>1500</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E24" s="3">
         <v>3400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>6200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>5200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>900</v>
-      </c>
-      <c r="V24" s="3">
-        <v>4600</v>
       </c>
       <c r="W24" s="3">
         <v>4600</v>
       </c>
       <c r="X24" s="3">
+        <v>4600</v>
+      </c>
+      <c r="Y24" s="3">
         <v>1800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>3600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>19900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>2100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>3100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-3700</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>1000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E26" s="3">
         <v>9300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>13900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>12000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>14100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>11800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>9900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>15200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>9600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>9200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>15300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>16600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>18600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>19700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>15900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>7700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>7400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-10600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>12500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>11700</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-4700</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>500</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E27" s="3">
         <v>9300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>13900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>12000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>14100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>11800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>9900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>15200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>9600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>9200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>15300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>16600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>18600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>19700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>15900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>7700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>7400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-10600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>12500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>11700</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-4700</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>500</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2523,8 +2584,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2541,26 +2602,26 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>1500</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3">
         <v>1000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-18600</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>800</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>17000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-300</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>400</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>1500</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E33" s="3">
         <v>9300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>13900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>12000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>14100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>8400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>11800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>9900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>15200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>9600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>9200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>15300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>16600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>18600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>19700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>15900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>7700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>8500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-29200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>12500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>11700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-4700</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>500</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E35" s="3">
         <v>9300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>13900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>12000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>14100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>8400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>11800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>9900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>15200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>9600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>9200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>15300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>16600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>18600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>19700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>15900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>7700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>8500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-29200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>12500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>11700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-4700</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>500</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,97 +3354,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>99100</v>
+      </c>
+      <c r="E41" s="3">
         <v>107000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>133200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>81500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>88900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>85700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>115400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>106700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>105300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>88700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>202100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>187600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>186600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>152200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>114500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>84000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>72000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>55700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>71100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>58100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>57700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>57100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>63000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>64600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>69500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>64600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>77600</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>51500</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>45700</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,631 +3536,655 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>166400</v>
+      </c>
+      <c r="E43" s="3">
         <v>165100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>151500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>146900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>140300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>133000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>147500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>125900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>125500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>123200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>105500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>94200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>92500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>96500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>123700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>125400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>130000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>135500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>129200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>123400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>132100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>129800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>127800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>123500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>126400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>119700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>111600</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>74900</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>80400</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>205000</v>
+      </c>
+      <c r="E44" s="3">
         <v>204700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>179400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>200700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>192800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>189300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>172100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>175100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>147900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>138700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>111500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>113400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>112100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>124600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>127400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>135400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>142400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>151000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>146300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>149700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>158300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>155700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>152900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>144700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>139300</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>135300</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>130600</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>109100</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>116200</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>40700</v>
+      </c>
+      <c r="E45" s="3">
         <v>37400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>32300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>34500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>37500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>34600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>31500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>33400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>28900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>31700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>22800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>18900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>18100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>19700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>17200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>16900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>16700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>15900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>16100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>16600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>17000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>16800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>16600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>17800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>16800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>19600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>21100</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>16300</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>511200</v>
+      </c>
+      <c r="E46" s="3">
         <v>514200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>496200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>463600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>459500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>442600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>466600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>441100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>407600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>382200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>441800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>414100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>409300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>392900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>382700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>361700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>361100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>358100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>362600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>347800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>365100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>359400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>360300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>350500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>352000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>339300</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>341000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>251800</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>256500</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E47" s="3">
         <v>13400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>13100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>12800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>12400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>12700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>13100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>13900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>13500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>13400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>11000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>10900</v>
-      </c>
-      <c r="O47" s="3">
-        <v>11200</v>
       </c>
       <c r="P47" s="3">
         <v>11200</v>
       </c>
       <c r="Q47" s="3">
+        <v>11200</v>
+      </c>
+      <c r="R47" s="3">
         <v>7300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>7400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>7900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>7600</v>
-      </c>
-      <c r="U47" s="3">
-        <v>7000</v>
       </c>
       <c r="V47" s="3">
         <v>7000</v>
       </c>
       <c r="W47" s="3">
+        <v>7000</v>
+      </c>
+      <c r="X47" s="3">
         <v>7200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>7600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>7700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>7600</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>8100</v>
-      </c>
-      <c r="AB47" s="3">
-        <v>7700</v>
       </c>
       <c r="AC47" s="3">
         <v>7700</v>
       </c>
       <c r="AD47" s="3">
+        <v>7700</v>
+      </c>
+      <c r="AE47" s="3">
         <v>8100</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>152900</v>
+      </c>
+      <c r="E48" s="3">
         <v>154500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>147900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>127100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>121100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>123900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>128700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>129400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>128600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>133400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>108900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>108600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>109900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>113700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>79500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>81100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>82700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>85100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>87300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>88700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>102300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>104500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>113100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>111800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>113100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>112700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>113000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>99200</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1115000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1141500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1007200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1010100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>993100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1019400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1039600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1057600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1008000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1023800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>544500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>560700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>550300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>540000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>537600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>546000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>540300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>556800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>555800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>566300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>574000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>580000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>611200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>605000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>603000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>595100</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>575500</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>285500</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>289700</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,97 +4364,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E52" s="3">
         <v>35800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>34000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>35900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>43300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>36200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>37700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>29400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>28300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>27900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>44100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>53000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>51200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>44700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>86100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>83700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>79400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>82900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>48900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>52800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>55400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>56100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>50200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>56200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>69600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>71600</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>76700</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>81000</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>81900</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1827400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1859500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1698500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1649400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1629300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1634700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1685700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1671500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1586000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1580600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1150400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1147400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1131900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1102600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1093300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1079900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1071400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1090500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1061600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1062500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1104000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1107600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1142400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1131100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1145700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1126400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1113800</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>725600</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>739700</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,102 +4710,106 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>71400</v>
+      </c>
+      <c r="E57" s="3">
         <v>77400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>76700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>70600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>76600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>73900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>90900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>74100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>71500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>71600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>68600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>49600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>37700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>38900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>57300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>46300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>49000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>40200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>47000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>39700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>41400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>43400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>47000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>42900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>42000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>40500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>41000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>28200</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>40600</v>
+        <v>50600</v>
       </c>
       <c r="E58" s="3">
         <v>40600</v>
@@ -4693,31 +4827,31 @@
         <v>40600</v>
       </c>
       <c r="J58" s="3">
+        <v>40600</v>
+      </c>
+      <c r="K58" s="3">
         <v>40500</v>
-      </c>
-      <c r="K58" s="3">
-        <v>60500</v>
       </c>
       <c r="L58" s="3">
         <v>60500</v>
       </c>
       <c r="M58" s="3">
-        <v>4500</v>
+        <v>60500</v>
       </c>
       <c r="N58" s="3">
         <v>4500</v>
       </c>
       <c r="O58" s="3">
-        <v>29500</v>
+        <v>4500</v>
       </c>
       <c r="P58" s="3">
         <v>29500</v>
       </c>
       <c r="Q58" s="3">
+        <v>29500</v>
+      </c>
+      <c r="R58" s="3">
         <v>4500</v>
-      </c>
-      <c r="R58" s="3">
-        <v>65000</v>
       </c>
       <c r="S58" s="3">
         <v>65000</v>
@@ -4729,7 +4863,7 @@
         <v>65000</v>
       </c>
       <c r="V58" s="3">
-        <v>60000</v>
+        <v>65000</v>
       </c>
       <c r="W58" s="3">
         <v>60000</v>
@@ -4738,384 +4872,399 @@
         <v>60000</v>
       </c>
       <c r="Y58" s="3">
-        <v>60100</v>
+        <v>60000</v>
       </c>
       <c r="Z58" s="3">
         <v>60100</v>
       </c>
       <c r="AA58" s="3">
+        <v>60100</v>
+      </c>
+      <c r="AB58" s="3">
         <v>49700</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>49800</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>52600</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>13100</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>141500</v>
+      </c>
+      <c r="E59" s="3">
         <v>145900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>124300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>104200</v>
-      </c>
-      <c r="G59" s="3">
-        <v>104800</v>
       </c>
       <c r="H59" s="3">
         <v>104800</v>
       </c>
       <c r="I59" s="3">
+        <v>104800</v>
+      </c>
+      <c r="J59" s="3">
         <v>118200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>116400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>104900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>113100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>110800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>90100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>88700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>91900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>93600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>94200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>95100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>99800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>99300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>95500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>95600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>92300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>100000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>90900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>88100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>85300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>97400</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>51200</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>263600</v>
+      </c>
+      <c r="E60" s="3">
         <v>263900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>241700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>215400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>222000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>219300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>249600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>231000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>236900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>245200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>183900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>144100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>155900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>160300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>155300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>205500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>209100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>205000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>211300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>195300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>197000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>195800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>207000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>193900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>179800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>175600</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>191000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>92500</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>123100</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>514200</v>
+      </c>
+      <c r="E61" s="3">
         <v>539200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>431000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>440900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>450800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>460800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>470700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>480600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>392700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>398800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>244500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>245100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>245700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>246300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>246900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>186900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>206400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>225800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>235300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>254800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>279300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>293800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>303300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>317800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>342500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>358200</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>368800</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>221100</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>196800</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>195600</v>
+      </c>
+      <c r="E62" s="3">
         <v>209500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>192000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>182200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>172100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>179500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>192600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>214200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>221200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>212200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>191900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>260900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>250400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>229400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>227500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>203100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>192100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>207300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>183800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>192000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>203400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>208400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>224000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>235400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>236600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>228600</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>212800</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>119700</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>121300</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>973400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1012600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>864700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>838600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>844900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>859500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>912900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>925800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>850800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>856200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>620300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>650100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>652000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>636000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>629700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>595500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>607600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>638200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>630400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>642100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>679700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>698000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>734200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>747100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>758900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>762400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>772500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>433300</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>441200</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>379800</v>
+      </c>
+      <c r="E72" s="3">
         <v>366000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>356800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>346900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>336800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>324700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>316300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>308200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>300000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>286500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>293800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>287100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>281900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>287500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>290400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>284000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>270200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>255000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>236500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>219300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>221200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>206500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>197900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>191500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>203000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>191400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>179700</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>186300</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>186600</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>854000</v>
+      </c>
+      <c r="E76" s="3">
         <v>847000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>833800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>810900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>784400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>775200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>772800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>745600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>735200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>724500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>530100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>497300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>480000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>466600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>463600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>484400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>463800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>452300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>431200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>420400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>424300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>409600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>408200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>384000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>386800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>364000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>341400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>292300</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E81" s="3">
         <v>9300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>13900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>12000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>14100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>8400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>11800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>9900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>15200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>9600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>9200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>15300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>16600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>18600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>19700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>15900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>7700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>8500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-29200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>12500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>11700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-4700</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>500</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,46 +6807,47 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E83" s="3">
         <v>10900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>10600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>10500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>10400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>10500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>10700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>10300</v>
-      </c>
-      <c r="K83" s="3">
-        <v>10500</v>
       </c>
       <c r="L83" s="3">
         <v>10500</v>
       </c>
       <c r="M83" s="3">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="N83" s="3">
         <v>7000</v>
       </c>
       <c r="O83" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="P83" s="3">
         <v>7100</v>
@@ -6657,49 +6856,52 @@
         <v>7100</v>
       </c>
       <c r="R83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="S83" s="3">
         <v>7200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>7300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>7400</v>
-      </c>
-      <c r="U83" s="3">
-        <v>7900</v>
       </c>
       <c r="V83" s="3">
         <v>7900</v>
       </c>
       <c r="W83" s="3">
+        <v>7900</v>
+      </c>
+      <c r="X83" s="3">
         <v>8000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>8800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>9300</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>9100</v>
       </c>
       <c r="AA83" s="3">
         <v>9100</v>
       </c>
       <c r="AB83" s="3">
+        <v>9100</v>
+      </c>
+      <c r="AC83" s="3">
         <v>8700</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>7500</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>5800</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-17200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>66700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>10800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>17300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-11200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>25200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>25300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>26900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>25000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>37400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>9500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>36500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>32400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>40000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>25700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>26200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>19500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>8100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>18400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>16500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>20300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>14400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>11900</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>22900</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,97 +7485,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-5100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-5100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-3300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-4200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-1900</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-3100</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-2800</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-112700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-70100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-480400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>5400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>4300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>2600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-5300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-6000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-4300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-16600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-215900</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-8100</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7675,7 +7909,7 @@
         <v>-2000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1700</v>
+        <v>-2000</v>
       </c>
       <c r="J96" s="3">
         <v>-1700</v>
@@ -7684,7 +7918,7 @@
         <v>-1700</v>
       </c>
       <c r="L96" s="3">
-        <v>-1400</v>
+        <v>-1700</v>
       </c>
       <c r="M96" s="3">
         <v>-1400</v>
@@ -7711,7 +7945,7 @@
         <v>-1400</v>
       </c>
       <c r="U96" s="3">
-        <v>-1200</v>
+        <v>-1400</v>
       </c>
       <c r="V96" s="3">
         <v>-1200</v>
@@ -7723,7 +7957,7 @@
         <v>-1200</v>
       </c>
       <c r="Y96" s="3">
-        <v>-900</v>
+        <v>-1200</v>
       </c>
       <c r="Z96" s="3">
         <v>-900</v>
@@ -7738,13 +7972,16 @@
         <v>-900</v>
       </c>
       <c r="AD96" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="AE96" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,271 +8253,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="E100" s="3">
         <v>104000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-12300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-13200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-11500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-12900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-12600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>66400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>373800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-26200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>21700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-20800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-18600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-10900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-16000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-27500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-16200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-8100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-16400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-15500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-12600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-15000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>226600</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-6400</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-12200</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-3900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1800</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>1500</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>4200</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>3400</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-2600</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-26200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>51700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-29700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>8700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>16700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-113500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>14500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>34300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>37800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>30400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>12000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>16300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-15400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>13000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-5900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-4900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>4800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-13000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>26100</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>5800</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>2500</v>
       </c>
     </row>
